--- a/data_analysis/group_cue_data.xlsx
+++ b/data_analysis/group_cue_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.tiesman/Documents/Research/Human_AV_Motion/data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD476FA8-8458-D040-85C2-F2059C070BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB072BD-D070-6849-ADF0-B9B54C81397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="5" r:id="rId1"/>
@@ -18,9 +18,10 @@
     <sheet name="data_in" sheetId="4" r:id="rId3"/>
     <sheet name="data_out" sheetId="3" r:id="rId4"/>
     <sheet name="data_to_analyze" sheetId="2" r:id="rId5"/>
-    <sheet name="raw_all" sheetId="1" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
-    <sheet name="all_AO_VO" sheetId="8" r:id="rId8"/>
+    <sheet name="data_final" sheetId="9" r:id="rId6"/>
+    <sheet name="raw_all" sheetId="1" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
+    <sheet name="all_AO_VO" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="133">
   <si>
     <t>A_Vnoise</t>
   </si>
@@ -383,6 +384,66 @@
   <si>
     <t>BAD AUD ONLY</t>
   </si>
+  <si>
+    <t>Capture_metric</t>
+  </si>
+  <si>
+    <t>Matching_cueAV_Std</t>
+  </si>
+  <si>
+    <t>Nonmatching_cueAV_Std</t>
+  </si>
+  <si>
+    <t>Matching_cueAud_Std</t>
+  </si>
+  <si>
+    <t>Nonmatching_cueAud_Std</t>
+  </si>
+  <si>
+    <t>Matching_cueVis_Std</t>
+  </si>
+  <si>
+    <t>Nonmatching_cueVis_Std</t>
+  </si>
+  <si>
+    <t>AO_Slope</t>
+  </si>
+  <si>
+    <t>VO_Slope</t>
+  </si>
+  <si>
+    <t>AV_Aud_Slope</t>
+  </si>
+  <si>
+    <t>AV_Vis_Slope</t>
+  </si>
+  <si>
+    <t>AV_AV_Slope</t>
+  </si>
+  <si>
+    <t>Best_AO_VO_Slope</t>
+  </si>
+  <si>
+    <t>Best_MSCue_Slope</t>
+  </si>
+  <si>
+    <t>Incong_AV_Aud_Slope</t>
+  </si>
+  <si>
+    <t>Incong_AV_Vis_Slope</t>
+  </si>
+  <si>
+    <t>AV_EstimatedSlope</t>
+  </si>
+  <si>
+    <t>MS_Gain_Std</t>
+  </si>
+  <si>
+    <t>MS_Gain_Slope</t>
+  </si>
+  <si>
+    <t>Worst_Unisensory_Weight</t>
+  </si>
 </sst>
 </file>
 
@@ -511,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -529,6 +590,9 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -61468,11 +61532,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BA4F4-0E61-5E41-980B-6C6A3201DD04}">
-  <dimension ref="A1:AI69"/>
+  <dimension ref="A1:AP69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AE27" sqref="AE27"/>
+      <selection pane="topRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -61500,7 +61564,7 @@
     <col min="25" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -61606,8 +61670,29 @@
       <c r="AI1" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ1" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2</v>
       </c>
@@ -61717,11 +61802,33 @@
         <v>3.1000000000000003E-3</v>
       </c>
       <c r="AI2" s="6">
-        <f>O2-M2</f>
+        <f t="shared" ref="AI2:AI27" si="0">O2-M2</f>
         <v>3.1145999999999993E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ2" s="6">
+        <f t="shared" ref="AJ2:AJ27" si="1">IF(Y2&gt;0.5, Z2, Y2)</f>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="AK2" s="17">
+        <v>8.4100883133059842E-2</v>
+      </c>
+      <c r="AL2" s="17">
+        <v>0.12260912726643097</v>
+      </c>
+      <c r="AM2" s="17">
+        <v>0.13235080259205662</v>
+      </c>
+      <c r="AN2" s="17">
+        <v>0.11358429031646088</v>
+      </c>
+      <c r="AO2" s="17">
+        <v>0.11122300973921344</v>
+      </c>
+      <c r="AP2" s="17">
+        <v>0.1894297994932076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>3</v>
       </c>
@@ -61765,11 +61872,11 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" ref="O3:O27" si="0">MIN(E3,G3)</f>
+        <f t="shared" ref="O3:O27" si="2">MIN(E3,G3)</f>
         <v>0.11321000000000001</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P27" si="1">MIN(I3,K3)</f>
+        <f t="shared" ref="P3:P27" si="3">MIN(I3,K3)</f>
         <v>6.0113E-2</v>
       </c>
       <c r="Q3" s="10">
@@ -61815,27 +61922,49 @@
         <v>0.97960000000000003</v>
       </c>
       <c r="AE3" s="6">
-        <f t="shared" ref="AE3:AE27" si="2">E3-I3</f>
+        <f t="shared" ref="AE3:AE27" si="4">E3-I3</f>
         <v>0.13505</v>
       </c>
       <c r="AF3" s="6">
-        <f t="shared" ref="AF3:AF27" si="3">G3-K3</f>
+        <f t="shared" ref="AF3:AF27" si="5">G3-K3</f>
         <v>5.3097000000000005E-2</v>
       </c>
       <c r="AG3" s="6">
-        <f t="shared" ref="AG3:AG19" si="4">ABS(F3-J3)</f>
+        <f t="shared" ref="AG3:AG19" si="6">ABS(F3-J3)</f>
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="AH3" s="6">
-        <f t="shared" ref="AH3:AH19" si="5">ABS(H3-L3)</f>
+        <f t="shared" ref="AH3:AH19" si="7">ABS(H3-L3)</f>
         <v>4.0900000000000006E-2</v>
       </c>
       <c r="AI3" s="6">
-        <f t="shared" ref="AI3:AI27" si="6">O3-M3</f>
+        <f t="shared" si="0"/>
         <v>4.5282000000000003E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ3" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1774</v>
+      </c>
+      <c r="AK3" s="17">
+        <v>7.577748650118335E-2</v>
+      </c>
+      <c r="AL3" s="17">
+        <v>4.4009587334297384E-2</v>
+      </c>
+      <c r="AM3" s="17">
+        <v>8.3934640856946921E-2</v>
+      </c>
+      <c r="AN3" s="17">
+        <v>0.12738648157801888</v>
+      </c>
+      <c r="AO3" s="17">
+        <v>1.4990728229782931E-2</v>
+      </c>
+      <c r="AP3" s="17">
+        <v>7.7391883312241172E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>4</v>
       </c>
@@ -61879,11 +62008,11 @@
         <v>1.2E-2</v>
       </c>
       <c r="O4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17718999999999999</v>
       </c>
       <c r="P4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.25725999999999999</v>
       </c>
       <c r="Q4" s="6">
@@ -61929,27 +62058,49 @@
         <v>0.83220000000000005</v>
       </c>
       <c r="AE4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-8.0070000000000002E-2</v>
       </c>
       <c r="AF4" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27993999999999997</v>
       </c>
       <c r="AG4" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.0600000000000001E-2</v>
       </c>
       <c r="AH4" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="AI4" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.13499000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ4" s="6">
+        <f t="shared" si="1"/>
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="AK4" s="17">
+        <v>0.31750640296948063</v>
+      </c>
+      <c r="AL4" s="17">
+        <v>0.28170714542937347</v>
+      </c>
+      <c r="AM4" s="17">
+        <v>0.16206323395154096</v>
+      </c>
+      <c r="AN4" s="17">
+        <v>0.34063739217241162</v>
+      </c>
+      <c r="AO4" s="17">
+        <v>0.21394574621279233</v>
+      </c>
+      <c r="AP4" s="17">
+        <v>0.27430922332883811</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>6</v>
       </c>
@@ -61993,11 +62144,11 @@
         <v>-6.6799999999999998E-2</v>
       </c>
       <c r="O5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.28893999999999997</v>
       </c>
       <c r="P5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.23244000000000001</v>
       </c>
       <c r="Q5" s="6">
@@ -62043,27 +62194,49 @@
         <v>0.8972</v>
       </c>
       <c r="AE5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.5239999999999984E-2</v>
       </c>
       <c r="AF5" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.78235999999999994</v>
       </c>
       <c r="AG5" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.8799999999999996E-2</v>
       </c>
       <c r="AH5" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.26079999999999998</v>
       </c>
       <c r="AI5" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3.0239999999999989E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ5" s="6">
+        <f t="shared" si="1"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AK5" s="17">
+        <v>0.21275980994765911</v>
+      </c>
+      <c r="AL5" s="17">
+        <v>0.30790177063279228</v>
+      </c>
+      <c r="AM5" s="17">
+        <v>0.22987596007932731</v>
+      </c>
+      <c r="AN5" s="17">
+        <v>0.21918300693601256</v>
+      </c>
+      <c r="AO5" s="17">
+        <v>0.18325759860979979</v>
+      </c>
+      <c r="AP5" s="17">
+        <v>0.25171788613936374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>7</v>
       </c>
@@ -62107,11 +62280,11 @@
         <v>-1.4E-3</v>
       </c>
       <c r="O6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2087</v>
       </c>
       <c r="P6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.8451000000000002E-2</v>
       </c>
       <c r="Q6" s="6">
@@ -62157,27 +62330,49 @@
         <v>0.97009999999999996</v>
       </c>
       <c r="AE6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>8.9380000000000001E-2</v>
       </c>
       <c r="AF6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19989899999999999</v>
       </c>
       <c r="AG6" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.1295</v>
       </c>
       <c r="AH6" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6899999999999997E-2</v>
       </c>
       <c r="AI6" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>7.8570000000000001E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ6" s="6">
+        <f t="shared" si="1"/>
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="AK6" s="17">
+        <v>8.4253147396669142E-2</v>
+      </c>
+      <c r="AL6" s="17">
+        <v>0.12328025697662448</v>
+      </c>
+      <c r="AM6" s="17">
+        <v>7.6741720780291914E-2</v>
+      </c>
+      <c r="AN6" s="17">
+        <v>0.15041447452577608</v>
+      </c>
+      <c r="AO6" s="17">
+        <v>0.11298797370529964</v>
+      </c>
+      <c r="AP6" s="17">
+        <v>0.10144213198961308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -62221,11 +62416,11 @@
         <v>-8.3999999999999995E-3</v>
       </c>
       <c r="O7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.22957</v>
       </c>
       <c r="P7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22509000000000001</v>
       </c>
       <c r="Q7" s="6">
@@ -62271,27 +62466,49 @@
         <v>0.9546</v>
       </c>
       <c r="AE7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.479999999999984E-3</v>
       </c>
       <c r="AF7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-2.6720000000000022E-2</v>
       </c>
       <c r="AG7" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.15560000000000002</v>
       </c>
       <c r="AH7" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1800000000000004E-2</v>
       </c>
       <c r="AI7" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3.0730000000000007E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ7" s="6">
+        <f t="shared" si="1"/>
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="AK7" s="17">
+        <v>0.18025476729379256</v>
+      </c>
+      <c r="AL7" s="17">
+        <v>0.21226661772231226</v>
+      </c>
+      <c r="AM7" s="17">
+        <v>0.26422153005577947</v>
+      </c>
+      <c r="AN7" s="17">
+        <v>0.27482976778350876</v>
+      </c>
+      <c r="AO7" s="17">
+        <v>0.39374109070472868</v>
+      </c>
+      <c r="AP7" s="17">
+        <v>0.28887605129737148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>9</v>
       </c>
@@ -62335,11 +62552,11 @@
         <v>-5.8000000000000003E-2</v>
       </c>
       <c r="O8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16001000000000001</v>
       </c>
       <c r="P8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22509000000000001</v>
       </c>
       <c r="Q8" s="6">
@@ -62385,27 +62602,49 @@
         <v>0.95599999999999996</v>
       </c>
       <c r="AE8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-6.0100000000000153E-3</v>
       </c>
       <c r="AF8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.25575000000000003</v>
       </c>
       <c r="AG8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7000000000000079E-3</v>
       </c>
       <c r="AH8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18480000000000002</v>
       </c>
       <c r="AI8" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3.1130000000000019E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ8" s="6">
+        <f t="shared" si="1"/>
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="AK8" s="17">
+        <v>0.10545916410417237</v>
+      </c>
+      <c r="AL8" s="17">
+        <v>0.18078944511916736</v>
+      </c>
+      <c r="AM8" s="17">
+        <v>0.26422153005577997</v>
+      </c>
+      <c r="AN8" s="17">
+        <v>0.27482976778350898</v>
+      </c>
+      <c r="AO8" s="17">
+        <v>0.49789506034432174</v>
+      </c>
+      <c r="AP8" s="17">
+        <v>0.47320793205271949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>10</v>
       </c>
@@ -62449,11 +62688,11 @@
         <v>-4.3499999999999997E-2</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16542999999999999</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1535999999999997E-2</v>
       </c>
       <c r="Q9" s="6">
@@ -62499,27 +62738,49 @@
         <v>0.97709999999999997</v>
       </c>
       <c r="AE9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16244000000000003</v>
       </c>
       <c r="AF9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.123894</v>
       </c>
       <c r="AG9" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8300000000000004E-2</v>
       </c>
       <c r="AH9" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1400000000000007E-2</v>
       </c>
       <c r="AI9" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>8.155599999999999E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ9" s="6">
+        <f t="shared" si="1"/>
+        <v>0.22</v>
+      </c>
+      <c r="AK9" s="17">
+        <v>4.0014145094522148E-2</v>
+      </c>
+      <c r="AL9" s="17">
+        <v>0.14172350052120786</v>
+      </c>
+      <c r="AM9" s="17">
+        <v>0.1162360942799452</v>
+      </c>
+      <c r="AN9" s="17">
+        <v>0.18072180378559582</v>
+      </c>
+      <c r="AO9" s="17">
+        <v>3.1848022546480156E-2</v>
+      </c>
+      <c r="AP9" s="17">
+        <v>4.1284268032062803E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>13</v>
       </c>
@@ -62563,11 +62824,11 @@
         <v>-0.2104</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.92508000000000001</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15026999999999999</v>
       </c>
       <c r="Q10" s="6">
@@ -62613,27 +62874,49 @@
         <v>0.96089999999999998</v>
       </c>
       <c r="AE10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.74011000000000005</v>
       </c>
       <c r="AF10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.77481</v>
       </c>
       <c r="AG10" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.6199999999999972E-2</v>
       </c>
       <c r="AH10" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.030000000000001E-2</v>
       </c>
       <c r="AI10" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.79432000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="AK10" s="17">
+        <v>0.18313196444886068</v>
+      </c>
+      <c r="AL10" s="17">
+        <v>0.14806557451095612</v>
+      </c>
+      <c r="AM10" s="17">
+        <v>0.46378073556862953</v>
+      </c>
+      <c r="AN10" s="17">
+        <v>0.60745087419996946</v>
+      </c>
+      <c r="AO10" s="17">
+        <v>1.5835558037154478</v>
+      </c>
+      <c r="AP10" s="17">
+        <v>0.26310330786354919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>15</v>
       </c>
@@ -62677,11 +62960,11 @@
         <v>-0.1027</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16949</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10151</v>
       </c>
       <c r="Q11" s="10">
@@ -62727,27 +63010,49 @@
         <v>0.95799999999999996</v>
       </c>
       <c r="AE11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.35420000000000001</v>
       </c>
       <c r="AF11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.7979999999999999E-2</v>
       </c>
       <c r="AG11" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.34009999999999996</v>
       </c>
       <c r="AH11" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.18219999999999997</v>
       </c>
       <c r="AI11" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>9.1052999999999995E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ11" s="6">
+        <f t="shared" si="1"/>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="AK11" s="17">
+        <v>0.17139228528232212</v>
+      </c>
+      <c r="AL11" s="17">
+        <v>6.3226763941043207E-2</v>
+      </c>
+      <c r="AM11" s="17">
+        <v>1.7918170663734936</v>
+      </c>
+      <c r="AN11" s="17">
+        <v>16.494964071241089</v>
+      </c>
+      <c r="AO11" s="17">
+        <v>8.5104775404176505E-2</v>
+      </c>
+      <c r="AP11" s="17">
+        <v>0.13822550284197577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>17</v>
       </c>
@@ -62791,11 +63096,11 @@
         <v>3.7900000000000003E-2</v>
       </c>
       <c r="O12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.26182</v>
       </c>
       <c r="P12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13346</v>
       </c>
       <c r="Q12" s="6">
@@ -62841,27 +63146,49 @@
         <v>0.93520000000000003</v>
       </c>
       <c r="AE12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12823000000000001</v>
       </c>
       <c r="AF12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.19771999999999998</v>
       </c>
       <c r="AG12" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.9999999999999976E-3</v>
       </c>
       <c r="AH12" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.11929999999999999</v>
       </c>
       <c r="AI12" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.11868000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ12" s="6">
+        <f t="shared" si="1"/>
+        <v>0.3846</v>
+      </c>
+      <c r="AK12" s="17">
+        <v>0.12415224275797046</v>
+      </c>
+      <c r="AL12" s="17">
+        <v>0.21182181269779821</v>
+      </c>
+      <c r="AM12" s="17">
+        <v>9.1476521640542138E-2</v>
+      </c>
+      <c r="AN12" s="17">
+        <v>0.23299901280800964</v>
+      </c>
+      <c r="AO12" s="17">
+        <v>0.12902099538916817</v>
+      </c>
+      <c r="AP12" s="17">
+        <v>0.14213115521205386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>18</v>
       </c>
@@ -62905,11 +63232,11 @@
         <v>-0.08</v>
       </c>
       <c r="O13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17659</v>
       </c>
       <c r="P13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13955000000000001</v>
       </c>
       <c r="Q13" s="10">
@@ -62955,27 +63282,49 @@
         <v>0.98929999999999996</v>
       </c>
       <c r="AE13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7.7510000000000023E-2</v>
       </c>
       <c r="AF13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.703999999999999E-2</v>
       </c>
       <c r="AG13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6.7299999999999999E-2</v>
       </c>
       <c r="AH13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.5700000000000008E-2</v>
       </c>
       <c r="AI13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>8.5081000000000004E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ13" s="6">
+        <f t="shared" si="1"/>
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="AK13" s="17">
+        <v>0.1184527464587197</v>
+      </c>
+      <c r="AL13" s="17">
+        <v>4.8889763768690468E-2</v>
+      </c>
+      <c r="AM13" s="17">
+        <v>4.214853454766581E-2</v>
+      </c>
+      <c r="AN13" s="17">
+        <v>0.44522204467878612</v>
+      </c>
+      <c r="AO13" s="17">
+        <v>0.16337833545655769</v>
+      </c>
+      <c r="AP13" s="17">
+        <v>0.13305763257813821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>19</v>
       </c>
@@ -63019,11 +63368,11 @@
         <v>-2.4199999999999999E-2</v>
       </c>
       <c r="O14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13775999999999999</v>
       </c>
       <c r="P14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12889</v>
       </c>
       <c r="Q14" s="6">
@@ -63069,27 +63418,49 @@
         <v>0.95669999999999999</v>
       </c>
       <c r="AE14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.21612999999999999</v>
       </c>
       <c r="AF14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.7999999999999996E-3</v>
       </c>
       <c r="AG14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5200000000000002E-2</v>
       </c>
       <c r="AH14" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.2199999999999999E-2</v>
       </c>
       <c r="AI14" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>3.6899999999999988E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>0.10065422701733225</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>0.10115328994389532</v>
+      </c>
+      <c r="AM14" s="17">
+        <v>9.6857778409617665E-2</v>
+      </c>
+      <c r="AN14" s="17">
+        <v>0.13148264111299571</v>
+      </c>
+      <c r="AO14" s="17">
+        <v>9.8172844721555561E-2</v>
+      </c>
+      <c r="AP14" s="17">
+        <v>0.14779940682987502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>20</v>
       </c>
@@ -63133,11 +63504,11 @@
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.21551000000000001</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10861</v>
       </c>
       <c r="Q15" s="6">
@@ -63183,27 +63554,49 @@
         <v>0.95909999999999995</v>
       </c>
       <c r="AE15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1829999999999987E-2</v>
       </c>
       <c r="AF15" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10690000000000001</v>
       </c>
       <c r="AG15" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4499999999999997E-2</v>
       </c>
       <c r="AH15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.43E-2</v>
       </c>
       <c r="AI15" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.11635500000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ15" s="6">
+        <f t="shared" si="1"/>
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="AK15" s="17">
+        <v>0.13655026546407772</v>
+      </c>
+      <c r="AL15" s="17">
+        <v>8.8697142638025625E-2</v>
+      </c>
+      <c r="AM15" s="17">
+        <v>0.23087078070236997</v>
+      </c>
+      <c r="AN15" s="17">
+        <v>0.32996451245374703</v>
+      </c>
+      <c r="AO15" s="17">
+        <v>6.5687243431746478E-2</v>
+      </c>
+      <c r="AP15" s="17">
+        <v>0.15478593799655488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>22</v>
       </c>
@@ -63247,11 +63640,11 @@
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="O16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13680999999999999</v>
       </c>
       <c r="P16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.21356</v>
       </c>
       <c r="Q16" s="6">
@@ -63297,27 +63690,49 @@
         <v>0.71679999999999999</v>
       </c>
       <c r="AE16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.10138</v>
       </c>
       <c r="AF16" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-0.46648000000000001</v>
       </c>
       <c r="AG16" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.0300000000000001E-2</v>
       </c>
       <c r="AH16" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.15489999999999998</v>
       </c>
       <c r="AI16" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-0.26597999999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1588</v>
+      </c>
+      <c r="AK16" s="17">
+        <v>0.40759376371141842</v>
+      </c>
+      <c r="AL16" s="17">
+        <v>0.50538313673138457</v>
+      </c>
+      <c r="AM16" s="17">
+        <v>0.20477503907722794</v>
+      </c>
+      <c r="AN16" s="17">
+        <v>0.20463927566995352</v>
+      </c>
+      <c r="AO16" s="17">
+        <v>0.64578326229685012</v>
+      </c>
+      <c r="AP16" s="17">
+        <v>0.51967446552977703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>24</v>
       </c>
@@ -63361,11 +63776,11 @@
         <v>-4.7500000000000001E-2</v>
       </c>
       <c r="O17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.20165</v>
       </c>
       <c r="P17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18894</v>
       </c>
       <c r="Q17" s="10">
@@ -63411,27 +63826,49 @@
         <v>0.95640000000000003</v>
       </c>
       <c r="AE17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.481999999999998E-2</v>
       </c>
       <c r="AF17" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.16222000000000003</v>
       </c>
       <c r="AG17" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.10740000000000001</v>
       </c>
       <c r="AH17" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.43E-2</v>
       </c>
       <c r="AI17" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.106613</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.248</v>
+      </c>
+      <c r="AK17" s="17">
+        <v>6.0151868896706942E-2</v>
+      </c>
+      <c r="AL17" s="17">
+        <v>0.15821162474855677</v>
+      </c>
+      <c r="AM17" s="17">
+        <v>0.25185744813965433</v>
+      </c>
+      <c r="AN17" s="17">
+        <v>0.23574470838050215</v>
+      </c>
+      <c r="AO17" s="17">
+        <v>0.1889733284604054</v>
+      </c>
+      <c r="AP17" s="17">
+        <v>0.1748726332910788</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>26</v>
       </c>
@@ -63475,11 +63912,11 @@
         <v>-2.4799999999999999E-2</v>
       </c>
       <c r="O18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.7570000000000001E-2</v>
       </c>
       <c r="P18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10170999999999999</v>
       </c>
       <c r="Q18" s="6">
@@ -63525,27 +63962,49 @@
         <v>0.97219999999999995</v>
       </c>
       <c r="AE18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.14338999999999999</v>
       </c>
       <c r="AF18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0586900000000001</v>
       </c>
       <c r="AG18" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2299999999999991E-2</v>
       </c>
       <c r="AH18" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.32550000000000001</v>
       </c>
       <c r="AI18" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-5.5830000000000005E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ18" s="6">
+        <f t="shared" si="1"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AK18" s="17">
+        <v>0.11267788536776585</v>
+      </c>
+      <c r="AL18" s="17">
+        <v>7.8523677741789213E-2</v>
+      </c>
+      <c r="AM18" s="17">
+        <v>7.6167915837217284E-2</v>
+      </c>
+      <c r="AN18" s="17">
+        <v>0.35931465253971723</v>
+      </c>
+      <c r="AO18" s="17">
+        <v>0.1125031294592525</v>
+      </c>
+      <c r="AP18" s="17">
+        <v>9.3332135768968857E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>28</v>
       </c>
@@ -63589,11 +64048,11 @@
         <v>-2.93E-2</v>
       </c>
       <c r="O19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.8591000000000002E-2</v>
       </c>
       <c r="P19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.1091</v>
       </c>
       <c r="Q19" s="10">
@@ -63639,27 +64098,49 @@
         <v>0.90239999999999998</v>
       </c>
       <c r="AE19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11820000000000003</v>
       </c>
       <c r="AF19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-6.0509E-2</v>
       </c>
       <c r="AG19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.15240000000000001</v>
       </c>
       <c r="AH19" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.13239999999999999</v>
       </c>
       <c r="AI19" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-5.4099000000000001E-2</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ19" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="AK19" s="17">
+        <v>0.1049083292283686</v>
+      </c>
+      <c r="AL19" s="17">
+        <v>9.9918309596258068E-2</v>
+      </c>
+      <c r="AM19" s="17">
+        <v>0.19419745006765918</v>
+      </c>
+      <c r="AN19" s="17">
+        <v>0.18399045488724849</v>
+      </c>
+      <c r="AO19" s="17">
+        <v>0.11596393826378006</v>
+      </c>
+      <c r="AP19" s="17">
+        <v>7.75692726791605E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>31</v>
       </c>
@@ -63703,11 +64184,11 @@
         <v>-2.4199999999999999E-2</v>
       </c>
       <c r="O20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.17529</v>
       </c>
       <c r="P20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.6453999999999999E-2</v>
       </c>
       <c r="Q20" s="10">
@@ -63753,27 +64234,49 @@
         <v>0.97709999999999997</v>
       </c>
       <c r="AE20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.36392799999999997</v>
       </c>
       <c r="AF20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.108836</v>
       </c>
       <c r="AG20" s="6">
-        <f t="shared" ref="AG20:AG27" si="7">ABS(F20-J20)</f>
+        <f t="shared" ref="AG20:AG27" si="8">ABS(F20-J20)</f>
         <v>2.8999999999999998E-3</v>
       </c>
       <c r="AH20" s="6">
-        <f t="shared" ref="AH20:AH27" si="8">ABS(H20-L20)</f>
+        <f t="shared" ref="AH20:AH27" si="9">ABS(H20-L20)</f>
         <v>2.5100000000000004E-2</v>
       </c>
       <c r="AI20" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.10080799999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.129</v>
+      </c>
+      <c r="AK20" s="17">
+        <v>0.1138312946846423</v>
+      </c>
+      <c r="AL20" s="17">
+        <v>6.7096012492535176E-2</v>
+      </c>
+      <c r="AM20" s="17">
+        <v>5.2201660527606171E-2</v>
+      </c>
+      <c r="AN20" s="17">
+        <v>0.11853267770365822</v>
+      </c>
+      <c r="AO20" s="17">
+        <v>6.1516390656229943E-2</v>
+      </c>
+      <c r="AP20" s="17">
+        <v>0.10291689363511518</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>32</v>
       </c>
@@ -63817,11 +64320,11 @@
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="O21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25324000000000002</v>
       </c>
       <c r="P21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26341999999999999</v>
       </c>
       <c r="Q21" s="10">
@@ -63867,27 +64370,49 @@
         <v>0.92210000000000003</v>
       </c>
       <c r="AE21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-1.0179999999999967E-2</v>
       </c>
       <c r="AF21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.10821000000000003</v>
       </c>
       <c r="AG21" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.9999999999999988E-2</v>
       </c>
       <c r="AH21" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.11609999999999999</v>
       </c>
       <c r="AI21" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.7889999999999961E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="AK21" s="17">
+        <v>0.15219228540725396</v>
+      </c>
+      <c r="AL21" s="17">
+        <v>0.38603933531840345</v>
+      </c>
+      <c r="AM21" s="17">
+        <v>0.22778496387619399</v>
+      </c>
+      <c r="AN21" s="17">
+        <v>0.33939781068080938</v>
+      </c>
+      <c r="AO21" s="17">
+        <v>0.33663981065899135</v>
+      </c>
+      <c r="AP21" s="17">
+        <v>0.36715005326333644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>33</v>
       </c>
@@ -63931,11 +64456,11 @@
         <v>3.8999999999999998E-3</v>
       </c>
       <c r="O22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.16811000000000001</v>
       </c>
       <c r="P22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13625000000000001</v>
       </c>
       <c r="Q22" s="6">
@@ -63981,27 +64506,49 @@
         <v>0.95760000000000001</v>
       </c>
       <c r="AE22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.12134999999999999</v>
       </c>
       <c r="AF22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>4.7900000000000165E-3</v>
       </c>
       <c r="AG22" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.6499999999999994E-2</v>
       </c>
       <c r="AH22" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.6699999999999998E-2</v>
       </c>
       <c r="AI22" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-1.7549999999999982E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="AK22" s="17">
+        <v>0.16697498859696511</v>
+      </c>
+      <c r="AL22" s="17">
+        <v>0.18472725279418897</v>
+      </c>
+      <c r="AM22" s="17">
+        <v>0.15433510377101264</v>
+      </c>
+      <c r="AN22" s="17">
+        <v>6.6229510490020752E-2</v>
+      </c>
+      <c r="AO22" s="17">
+        <v>0.16052816184359409</v>
+      </c>
+      <c r="AP22" s="17">
+        <v>0.1419825588285186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>34</v>
       </c>
@@ -64045,11 +64592,11 @@
         <v>6.8999999999999999E-3</v>
       </c>
       <c r="O23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.13915</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22852</v>
       </c>
       <c r="Q23" s="6">
@@ -64095,27 +64642,49 @@
         <v>0.92900000000000005</v>
       </c>
       <c r="AE23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-2.4899999999999922E-3</v>
       </c>
       <c r="AF23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-8.9370000000000005E-2</v>
       </c>
       <c r="AG23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.1100000000000005E-2</v>
       </c>
       <c r="AH23" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.6100000000000002E-2</v>
       </c>
       <c r="AI23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1.1360000000000009E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ23" s="6">
+        <f t="shared" si="1"/>
+        <v>0.1986</v>
+      </c>
+      <c r="AK23" s="17">
+        <v>5.4931292733972292E-2</v>
+      </c>
+      <c r="AL23" s="17">
+        <v>0.19486588793948861</v>
+      </c>
+      <c r="AM23" s="17">
+        <v>1.2709711536534364E-2</v>
+      </c>
+      <c r="AN23" s="17">
+        <v>0.37914923023359864</v>
+      </c>
+      <c r="AO23" s="17">
+        <v>0.13905462170829061</v>
+      </c>
+      <c r="AP23" s="17">
+        <v>0.51491460478873619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>35</v>
       </c>
@@ -64159,11 +64728,11 @@
         <v>1.4E-2</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.18489</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15404000000000001</v>
       </c>
       <c r="Q24" s="10">
@@ -64209,27 +64778,49 @@
         <v>0.89510000000000001</v>
       </c>
       <c r="AE24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-0.31726999999999994</v>
       </c>
       <c r="AF24" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.0849999999999989E-2</v>
       </c>
       <c r="AG24" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.5200000000000013E-2</v>
       </c>
       <c r="AH24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.9126600000000002E-3</v>
       </c>
       <c r="AI24" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-3.5530000000000006E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ24" s="6">
+        <f t="shared" si="1"/>
+        <v>0.4128</v>
+      </c>
+      <c r="AK24" s="17">
+        <v>0.13253701127588718</v>
+      </c>
+      <c r="AL24" s="17">
+        <v>0.41632774330176248</v>
+      </c>
+      <c r="AM24" s="17">
+        <v>0.27777977322974723</v>
+      </c>
+      <c r="AN24" s="17">
+        <v>0.86794061442480586</v>
+      </c>
+      <c r="AO24" s="17">
+        <v>7.0997722939146315E-2</v>
+      </c>
+      <c r="AP24" s="17">
+        <v>0.2441256453869291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>36</v>
       </c>
@@ -64273,11 +64864,11 @@
         <v>-4.6600000000000003E-2</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.31093999999999999</v>
       </c>
       <c r="P25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12553</v>
       </c>
       <c r="Q25" s="6">
@@ -64323,27 +64914,49 @@
         <v>0.97460000000000002</v>
       </c>
       <c r="AE25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.11517999999999998</v>
       </c>
       <c r="AF25" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.18540999999999999</v>
       </c>
       <c r="AG25" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10629999999999999</v>
       </c>
       <c r="AH25" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.9999999999999957E-3</v>
       </c>
       <c r="AI25" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.17462</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ25" s="6">
+        <f t="shared" si="1"/>
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="AK25" s="17">
+        <v>0.14388841660299262</v>
+      </c>
+      <c r="AL25" s="17">
+        <v>0.13139173383251429</v>
+      </c>
+      <c r="AM25" s="17">
+        <v>0.39433566184235774</v>
+      </c>
+      <c r="AN25" s="17">
+        <v>0.91213007731972207</v>
+      </c>
+      <c r="AO25" s="17">
+        <v>0.12382693113021637</v>
+      </c>
+      <c r="AP25" s="17">
+        <v>0.10492310435501516</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>37</v>
       </c>
@@ -64387,11 +65000,11 @@
         <v>-4.4299999999999999E-2</v>
       </c>
       <c r="O26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.30018</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15275</v>
       </c>
       <c r="Q26" s="10">
@@ -64437,27 +65050,49 @@
         <v>0.87939999999999996</v>
       </c>
       <c r="AE26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.13317999999999999</v>
       </c>
       <c r="AF26" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14743000000000001</v>
       </c>
       <c r="AG26" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.3000000000000009E-3</v>
       </c>
       <c r="AH26" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.0400000000000005E-2</v>
       </c>
       <c r="AI26" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>0.11693000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ26" s="6">
+        <f t="shared" si="1"/>
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="AK26" s="17">
+        <v>8.6448889787744856E-2</v>
+      </c>
+      <c r="AL26" s="17">
+        <v>0.15831794951344177</v>
+      </c>
+      <c r="AM26" s="17">
+        <v>0.19358994089634163</v>
+      </c>
+      <c r="AN26" s="17">
+        <v>0.22909337844101818</v>
+      </c>
+      <c r="AO26" s="17">
+        <v>9.5984974553225494E-2</v>
+      </c>
+      <c r="AP26" s="17">
+        <v>0.25690647027477553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>39</v>
       </c>
@@ -64501,11 +65136,11 @@
         <v>-0.1011</v>
       </c>
       <c r="O27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.18845999999999999</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.16305</v>
       </c>
       <c r="Q27" s="6">
@@ -64551,51 +65186,72 @@
         <v>0.92310000000000003</v>
       </c>
       <c r="AE27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.5409999999999988E-2</v>
       </c>
       <c r="AF27" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.17382</v>
       </c>
       <c r="AG27" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.9300000000000002E-2</v>
       </c>
       <c r="AH27" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.19E-2</v>
       </c>
       <c r="AI27" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-3.1219999999999998E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AJ27" s="6">
+        <f t="shared" si="1"/>
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="AK27" s="17">
+        <v>0.15455732660056515</v>
+      </c>
+      <c r="AL27" s="17">
+        <v>0.26143743849892059</v>
+      </c>
+      <c r="AM27" s="17">
+        <v>0.16711164010593349</v>
+      </c>
+      <c r="AN27" s="17">
+        <v>0.16910077048406549</v>
+      </c>
+      <c r="AO27" s="17">
+        <v>0.35182690692396451</v>
+      </c>
+      <c r="AP27" s="17">
+        <v>8.1072533962052259E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="E31"/>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
@@ -64830,6 +65486,3244 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8700DC7D-0A2B-3D4D-950C-F31FAF564A57}">
+  <dimension ref="A1:AI69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="3" style="6" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="3.33203125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="6" customWidth="1"/>
+    <col min="17" max="17" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5" style="6" customWidth="1"/>
+    <col min="19" max="19" width="19.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6">
+        <v>26</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>18</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.86799000000000004</v>
+      </c>
+      <c r="F2" s="6">
+        <f>1/E2</f>
+        <v>1.1520870056106636</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0.12493</v>
+      </c>
+      <c r="H2" s="6">
+        <f>1/G2</f>
+        <v>8.0044825102057153</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0.12333</v>
+      </c>
+      <c r="J2" s="6">
+        <f>1/I2</f>
+        <v>8.1083272520878946</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0.16883000000000001</v>
+      </c>
+      <c r="L2" s="6">
+        <f>1/K2</f>
+        <v>5.9231179292779714</v>
+      </c>
+      <c r="M2" s="6">
+        <v>9.3784000000000006E-2</v>
+      </c>
+      <c r="N2" s="6">
+        <f>1/M2</f>
+        <v>10.662799624669452</v>
+      </c>
+      <c r="O2" s="6">
+        <f>MIN(E2,G2)</f>
+        <v>0.12493</v>
+      </c>
+      <c r="P2" s="6">
+        <f>MAX(F2,H2)</f>
+        <v>8.0044825102057153</v>
+      </c>
+      <c r="Q2" s="6">
+        <f>MIN(I2,K2)</f>
+        <v>0.12333</v>
+      </c>
+      <c r="R2" s="6">
+        <f>MAX(J2,L2)</f>
+        <v>8.1083272520878946</v>
+      </c>
+      <c r="S2" s="10">
+        <v>973700000000000</v>
+      </c>
+      <c r="T2" s="10">
+        <f>1/S2</f>
+        <v>1.0270103728047654E-15</v>
+      </c>
+      <c r="U2" s="6">
+        <v>8.6E-3</v>
+      </c>
+      <c r="V2" s="6">
+        <f>1/U2</f>
+        <v>116.27906976744185</v>
+      </c>
+      <c r="W2" s="6">
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="X2" s="6">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="Y2" s="6">
+        <v>0.1237</v>
+      </c>
+      <c r="Z2" s="6">
+        <f>1/Y2</f>
+        <v>8.0840743734842366</v>
+      </c>
+      <c r="AA2" s="6">
+        <f>O2-M2</f>
+        <v>3.1145999999999993E-2</v>
+      </c>
+      <c r="AB2" s="6">
+        <f>(N2-P2)/P2</f>
+        <v>0.33210355710995459</v>
+      </c>
+      <c r="AC2" s="6">
+        <f t="shared" ref="AC2:AC27" si="0">IF(W2&gt;0.5, X2, W2)</f>
+        <v>2.0299999999999999E-2</v>
+      </c>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="17"/>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6">
+        <v>26</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>19</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.24379999999999999</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F27" si="1">1/E3</f>
+        <v>4.1017227235438884</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.11321000000000001</v>
+      </c>
+      <c r="H3" s="6">
+        <f t="shared" ref="H3:H27" si="2">1/G3</f>
+        <v>8.8331419485911127</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.10875</v>
+      </c>
+      <c r="J3" s="6">
+        <f t="shared" ref="J3:J27" si="3">1/I3</f>
+        <v>9.1954022988505741</v>
+      </c>
+      <c r="K3" s="6">
+        <v>6.0113E-2</v>
+      </c>
+      <c r="L3" s="6">
+        <f t="shared" ref="L3:L27" si="4">1/K3</f>
+        <v>16.635336782393161</v>
+      </c>
+      <c r="M3" s="6">
+        <v>6.7928000000000002E-2</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" ref="N3:N27" si="5">1/M3</f>
+        <v>14.721469791543987</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" ref="O3:O27" si="6">MIN(E3,G3)</f>
+        <v>0.11321000000000001</v>
+      </c>
+      <c r="P3" s="6">
+        <f t="shared" ref="P3:P27" si="7">MAX(F3,H3)</f>
+        <v>8.8331419485911127</v>
+      </c>
+      <c r="Q3" s="6">
+        <f t="shared" ref="Q3:Q27" si="8">MIN(I3,K3)</f>
+        <v>6.0113E-2</v>
+      </c>
+      <c r="R3" s="6">
+        <f t="shared" ref="R3:R27" si="9">MAX(J3,L3)</f>
+        <v>16.635336782393161</v>
+      </c>
+      <c r="S3" s="10">
+        <v>1248200000000000</v>
+      </c>
+      <c r="T3" s="10">
+        <f>1/S3</f>
+        <v>8.0115366127223202E-16</v>
+      </c>
+      <c r="U3" s="6">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="V3" s="6">
+        <f t="shared" ref="V3:V27" si="10">1/U3</f>
+        <v>13.037809647979138</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.1774</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0.8226</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>0.1027</v>
+      </c>
+      <c r="Z3" s="6">
+        <f t="shared" ref="Z3:Z27" si="11">1/Y3</f>
+        <v>9.7370983446932815</v>
+      </c>
+      <c r="AA3" s="6">
+        <f>O3-M3</f>
+        <v>4.5282000000000003E-2</v>
+      </c>
+      <c r="AB3" s="6">
+        <f t="shared" ref="AB3:AB27" si="12">(N3-P3)/P3</f>
+        <v>0.66661759510069496</v>
+      </c>
+      <c r="AC3" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1774</v>
+      </c>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="17"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.17718999999999999</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="1"/>
+        <v>5.6436593487217115</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.54901999999999995</v>
+      </c>
+      <c r="H4" s="6">
+        <f t="shared" si="2"/>
+        <v>1.8214272704090928</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.25725999999999999</v>
+      </c>
+      <c r="J4" s="6">
+        <f t="shared" si="3"/>
+        <v>3.8871180906475939</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.26907999999999999</v>
+      </c>
+      <c r="L4" s="6">
+        <f t="shared" si="4"/>
+        <v>3.7163668797383678</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0.31218000000000001</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="5"/>
+        <v>3.2032801588826958</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="6"/>
+        <v>0.17718999999999999</v>
+      </c>
+      <c r="P4" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6436593487217115</v>
+      </c>
+      <c r="Q4" s="6">
+        <f t="shared" si="8"/>
+        <v>0.25725999999999999</v>
+      </c>
+      <c r="R4" s="6">
+        <f t="shared" si="9"/>
+        <v>3.8871180906475939</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.66090000000000004</v>
+      </c>
+      <c r="T4" s="10">
+        <f t="shared" ref="T4:T27" si="13">1/S4</f>
+        <v>1.5130882130428203</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0.26390000000000002</v>
+      </c>
+      <c r="V4" s="6">
+        <f t="shared" si="10"/>
+        <v>3.78931413414172</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="X4" s="6">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>0.1686</v>
+      </c>
+      <c r="Z4" s="6">
+        <f t="shared" si="11"/>
+        <v>5.9311981020166078</v>
+      </c>
+      <c r="AA4" s="6">
+        <f>O4-M4</f>
+        <v>-0.13499000000000003</v>
+      </c>
+      <c r="AB4" s="6">
+        <f t="shared" si="12"/>
+        <v>-0.43241078864757515</v>
+      </c>
+      <c r="AC4" s="6">
+        <f t="shared" si="0"/>
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="AD4" s="17"/>
+      <c r="AE4" s="17"/>
+      <c r="AF4" s="17"/>
+      <c r="AG4" s="17"/>
+      <c r="AH4" s="17"/>
+      <c r="AI4" s="17"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.28893999999999997</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="1"/>
+        <v>3.4609261438360908</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1.0147999999999999</v>
+      </c>
+      <c r="H5" s="6">
+        <f t="shared" si="2"/>
+        <v>0.98541584548679551</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" si="3"/>
+        <v>4.2789901583226362</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.23244000000000001</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" si="4"/>
+        <v>4.3021855102392017</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="5"/>
+        <v>3.8654812524159259</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="6"/>
+        <v>0.28893999999999997</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" si="7"/>
+        <v>3.4609261438360908</v>
+      </c>
+      <c r="Q5" s="6">
+        <f t="shared" si="8"/>
+        <v>0.23244000000000001</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" si="9"/>
+        <v>4.3021855102392017</v>
+      </c>
+      <c r="S5" s="6">
+        <v>0.4254</v>
+      </c>
+      <c r="T5" s="10">
+        <f t="shared" si="13"/>
+        <v>2.3507287259050305</v>
+      </c>
+      <c r="U5" s="6">
+        <v>0.34150000000000003</v>
+      </c>
+      <c r="V5" s="6">
+        <f t="shared" si="10"/>
+        <v>2.9282576866764272</v>
+      </c>
+      <c r="W5" s="6">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="X5" s="6">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>0.27789999999999998</v>
+      </c>
+      <c r="Z5" s="6">
+        <f t="shared" si="11"/>
+        <v>3.5984166966534725</v>
+      </c>
+      <c r="AA5" s="6">
+        <f>O5-M5</f>
+        <v>3.0239999999999989E-2</v>
+      </c>
+      <c r="AB5" s="6">
+        <f t="shared" si="12"/>
+        <v>0.11689215307305756</v>
+      </c>
+      <c r="AC5" s="6">
+        <f t="shared" si="0"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="6">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.2087</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="1"/>
+        <v>4.7915668423574509</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.28835</v>
+      </c>
+      <c r="H6" s="6">
+        <f t="shared" si="2"/>
+        <v>3.4680076296167854</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.11932</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="3"/>
+        <v>8.3808246731478384</v>
+      </c>
+      <c r="K6" s="6">
+        <v>8.8451000000000002E-2</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="4"/>
+        <v>11.305694678409514</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0.13013</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="5"/>
+        <v>7.6846230692384543</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="6"/>
+        <v>0.2087</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="7"/>
+        <v>4.7915668423574509</v>
+      </c>
+      <c r="Q6" s="6">
+        <f t="shared" si="8"/>
+        <v>8.8451000000000002E-2</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="9"/>
+        <v>11.305694678409514</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.28129999999999999</v>
+      </c>
+      <c r="T6" s="10">
+        <f t="shared" si="13"/>
+        <v>3.5549235691432637</v>
+      </c>
+      <c r="U6" s="6">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="V6" s="6">
+        <f t="shared" si="10"/>
+        <v>5.5309734513274336</v>
+      </c>
+      <c r="W6" s="6">
+        <v>0.65620000000000001</v>
+      </c>
+      <c r="X6" s="6">
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0.1691</v>
+      </c>
+      <c r="Z6" s="6">
+        <f t="shared" si="11"/>
+        <v>5.9136605558840927</v>
+      </c>
+      <c r="AA6" s="6">
+        <f>O6-M6</f>
+        <v>7.8570000000000001E-2</v>
+      </c>
+      <c r="AB6" s="6">
+        <f t="shared" si="12"/>
+        <v>0.60378083455006537</v>
+      </c>
+      <c r="AC6" s="6">
+        <f t="shared" si="0"/>
+        <v>0.34379999999999999</v>
+      </c>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6">
+        <v>26</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.22957</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>4.355969856688592</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.37670999999999999</v>
+      </c>
+      <c r="H7" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6545618645642537</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.22509000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="3"/>
+        <v>4.4426673774934464</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0.40343000000000001</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4787447636516866</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.19883999999999999</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="5"/>
+        <v>5.029169181251258</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="6"/>
+        <v>0.22957</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="7"/>
+        <v>4.355969856688592</v>
+      </c>
+      <c r="Q7" s="6">
+        <f t="shared" si="8"/>
+        <v>0.22509000000000001</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="9"/>
+        <v>4.4426673774934464</v>
+      </c>
+      <c r="S7" s="6">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="T7" s="10">
+        <f t="shared" si="13"/>
+        <v>14.771048744460858</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0.61509999999999998</v>
+      </c>
+      <c r="V7" s="6">
+        <f t="shared" si="10"/>
+        <v>1.6257519102584945</v>
+      </c>
+      <c r="W7" s="6">
+        <v>0.72919999999999996</v>
+      </c>
+      <c r="X7" s="6">
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="Z7" s="6">
+        <f t="shared" si="11"/>
+        <v>5.1020408163265305</v>
+      </c>
+      <c r="AA7" s="6">
+        <f>O7-M7</f>
+        <v>3.0730000000000007E-2</v>
+      </c>
+      <c r="AB7" s="6">
+        <f t="shared" si="12"/>
+        <v>0.15454636893985121</v>
+      </c>
+      <c r="AC7" s="6">
+        <f t="shared" si="0"/>
+        <v>0.27079999999999999</v>
+      </c>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>9</v>
+      </c>
+      <c r="B8" s="6">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2</v>
+      </c>
+      <c r="D8" s="6">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.21908</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>4.5645426328281911</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0.16001000000000001</v>
+      </c>
+      <c r="H8" s="6">
+        <f t="shared" si="2"/>
+        <v>6.2496093994125363</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.22509000000000001</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="3"/>
+        <v>4.4426673774934464</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.41576000000000002</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="4"/>
+        <v>2.4052337887242641</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0.12887999999999999</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="5"/>
+        <v>7.7591558038485413</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="6"/>
+        <v>0.16001000000000001</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="7"/>
+        <v>6.2496093994125363</v>
+      </c>
+      <c r="Q8" s="6">
+        <f t="shared" si="8"/>
+        <v>0.22509000000000001</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="9"/>
+        <v>4.4426673774934464</v>
+      </c>
+      <c r="S8" s="6">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="T8" s="10">
+        <f t="shared" si="13"/>
+        <v>14.771048744460858</v>
+      </c>
+      <c r="U8" s="6">
+        <v>4.3052000000000001</v>
+      </c>
+      <c r="V8" s="6">
+        <f t="shared" si="10"/>
+        <v>0.23227724612096998</v>
+      </c>
+      <c r="W8" s="6">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="X8" s="6">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0.12920000000000001</v>
+      </c>
+      <c r="Z8" s="6">
+        <f t="shared" si="11"/>
+        <v>7.7399380804953557</v>
+      </c>
+      <c r="AA8" s="6">
+        <f>O8-M8</f>
+        <v>3.1130000000000019E-2</v>
+      </c>
+      <c r="AB8" s="6">
+        <f t="shared" si="12"/>
+        <v>0.24154252017380518</v>
+      </c>
+      <c r="AC8" s="6">
+        <f t="shared" si="0"/>
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="17"/>
+      <c r="AI8" s="17"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>10</v>
+      </c>
+      <c r="B9" s="6">
+        <v>26</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>19</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.31152000000000002</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>3.2100667693888032</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0.16542999999999999</v>
+      </c>
+      <c r="H9" s="6">
+        <f t="shared" si="2"/>
+        <v>6.044852807834129</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.14907999999999999</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="3"/>
+        <v>6.7078078883820771</v>
+      </c>
+      <c r="K9" s="6">
+        <v>4.1535999999999997E-2</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="4"/>
+        <v>24.075500770416028</v>
+      </c>
+      <c r="M9" s="6">
+        <v>8.3874000000000004E-2</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="5"/>
+        <v>11.922645873572263</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="6"/>
+        <v>0.16542999999999999</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="7"/>
+        <v>6.044852807834129</v>
+      </c>
+      <c r="Q9" s="6">
+        <f t="shared" si="8"/>
+        <v>4.1535999999999997E-2</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="9"/>
+        <v>24.075500770416028</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1.5713999999999999</v>
+      </c>
+      <c r="T9" s="10">
+        <f t="shared" si="13"/>
+        <v>0.63637520682194226</v>
+      </c>
+      <c r="U9" s="6">
+        <v>0.18609999999999999</v>
+      </c>
+      <c r="V9" s="6">
+        <f t="shared" si="10"/>
+        <v>5.3734551316496511</v>
+      </c>
+      <c r="W9" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="X9" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0.14610000000000001</v>
+      </c>
+      <c r="Z9" s="6">
+        <f t="shared" si="11"/>
+        <v>6.8446269678302532</v>
+      </c>
+      <c r="AA9" s="6">
+        <f>O9-M9</f>
+        <v>8.155599999999999E-2</v>
+      </c>
+      <c r="AB9" s="6">
+        <f t="shared" si="12"/>
+        <v>0.97236330686505945</v>
+      </c>
+      <c r="AC9" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="AD9" s="17"/>
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17"/>
+      <c r="AI9" s="17"/>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6">
+        <v>26</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>18</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.143</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>0.87489063867016625</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0.92508000000000001</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0809875902624637</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0.40289000000000003</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4820670654521084</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.15026999999999999</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="4"/>
+        <v>6.6546882278565258</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.13075999999999999</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="5"/>
+        <v>7.6475986540226373</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="6"/>
+        <v>0.92508000000000001</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="7"/>
+        <v>1.0809875902624637</v>
+      </c>
+      <c r="Q10" s="6">
+        <f t="shared" si="8"/>
+        <v>0.15026999999999999</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="9"/>
+        <v>6.6546882278565258</v>
+      </c>
+      <c r="S10" s="6">
+        <v>2.8881999999999999</v>
+      </c>
+      <c r="T10" s="10">
+        <f t="shared" si="13"/>
+        <v>0.34623641022089885</v>
+      </c>
+      <c r="U10" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="V10" s="6">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="W10" s="6">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="X10" s="6">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0.71909999999999996</v>
+      </c>
+      <c r="Z10" s="6">
+        <f t="shared" si="11"/>
+        <v>1.3906271728549577</v>
+      </c>
+      <c r="AA10" s="6">
+        <f>O10-M10</f>
+        <v>0.79432000000000003</v>
+      </c>
+      <c r="AB10" s="6">
+        <f t="shared" si="12"/>
+        <v>6.0746405628632623</v>
+      </c>
+      <c r="AC10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+      <c r="AI10" s="17"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>26</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>41</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.80842000000000003</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2369807773187205</v>
+      </c>
+      <c r="G11" s="6">
+        <v>0.16949</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
+        <v>5.900053100477904</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0.45422000000000001</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2015763286513144</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0.10151</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="4"/>
+        <v>9.8512461826421038</v>
+      </c>
+      <c r="M11" s="6">
+        <v>7.8437000000000007E-2</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="5"/>
+        <v>12.749085253133087</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="6"/>
+        <v>0.16949</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="7"/>
+        <v>5.900053100477904</v>
+      </c>
+      <c r="Q11" s="6">
+        <f t="shared" si="8"/>
+        <v>0.10151</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="9"/>
+        <v>9.8512461826421038</v>
+      </c>
+      <c r="S11" s="10">
+        <v>756860000000000</v>
+      </c>
+      <c r="T11" s="10">
+        <f t="shared" si="13"/>
+        <v>1.3212483154083979E-15</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0.1159</v>
+      </c>
+      <c r="V11" s="6">
+        <f t="shared" si="10"/>
+        <v>8.6281276962899049</v>
+      </c>
+      <c r="W11" s="6">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="X11" s="6">
+        <v>0.95789999999999997</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0.16589999999999999</v>
+      </c>
+      <c r="Z11" s="6">
+        <f t="shared" si="11"/>
+        <v>6.027727546714889</v>
+      </c>
+      <c r="AA11" s="6">
+        <f>O11-M11</f>
+        <v>9.1052999999999995E-2</v>
+      </c>
+      <c r="AB11" s="6">
+        <f t="shared" si="12"/>
+        <v>1.1608424595535269</v>
+      </c>
+      <c r="AC11" s="6">
+        <f t="shared" si="0"/>
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+      <c r="AI11" s="17"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>17</v>
+      </c>
+      <c r="B12" s="6">
+        <v>26</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.26182</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8194179207088839</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0.33117999999999997</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="2"/>
+        <v>3.0195060088169576</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.13358999999999999</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>7.485590238790329</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0.13346</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="4"/>
+        <v>7.4928817623257906</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0.14313999999999999</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="5"/>
+        <v>6.9861673885706308</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="6"/>
+        <v>0.26182</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="7"/>
+        <v>3.8194179207088839</v>
+      </c>
+      <c r="Q12" s="6">
+        <f t="shared" si="8"/>
+        <v>0.13346</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="9"/>
+        <v>7.4928817623257906</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0.37940000000000002</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" si="13"/>
+        <v>2.6357406431207169</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.1401</v>
+      </c>
+      <c r="V12" s="6">
+        <f t="shared" si="10"/>
+        <v>7.1377587437544614</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0.3846</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0.2054</v>
+      </c>
+      <c r="Z12" s="6">
+        <f t="shared" si="11"/>
+        <v>4.8685491723466408</v>
+      </c>
+      <c r="AA12" s="6">
+        <f>O12-M12</f>
+        <v>0.11868000000000001</v>
+      </c>
+      <c r="AB12" s="6">
+        <f t="shared" si="12"/>
+        <v>0.82911834567556264</v>
+      </c>
+      <c r="AC12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.3846</v>
+      </c>
+      <c r="AD12" s="17"/>
+      <c r="AE12" s="17"/>
+      <c r="AF12" s="17"/>
+      <c r="AG12" s="17"/>
+      <c r="AH12" s="17"/>
+      <c r="AI12" s="17"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6">
+        <v>26</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>18</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.37341000000000002</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6780214777322513</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0.17659</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="2"/>
+        <v>5.6628348151084431</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.2959</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3795201081446433</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0.13955000000000001</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="4"/>
+        <v>7.1658903618774632</v>
+      </c>
+      <c r="M13" s="6">
+        <v>9.1508999999999993E-2</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="5"/>
+        <v>10.927886874515076</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="6"/>
+        <v>0.17659</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="7"/>
+        <v>5.6628348151084431</v>
+      </c>
+      <c r="Q13" s="6">
+        <f t="shared" si="8"/>
+        <v>0.13955000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="9"/>
+        <v>7.1658903618774632</v>
+      </c>
+      <c r="S13" s="10">
+        <v>424190000000000</v>
+      </c>
+      <c r="T13" s="10">
+        <f t="shared" si="13"/>
+        <v>2.3574341686508405E-15</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0.1171</v>
+      </c>
+      <c r="V13" s="6">
+        <f t="shared" si="10"/>
+        <v>8.5397096498719041</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0.81720000000000004</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0.15959999999999999</v>
+      </c>
+      <c r="Z13" s="6">
+        <f t="shared" si="11"/>
+        <v>6.2656641604010028</v>
+      </c>
+      <c r="AA13" s="6">
+        <f>O13-M13</f>
+        <v>8.5081000000000004E-2</v>
+      </c>
+      <c r="AB13" s="6">
+        <f t="shared" si="12"/>
+        <v>0.92975554317061737</v>
+      </c>
+      <c r="AC13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.18279999999999999</v>
+      </c>
+      <c r="AD13" s="17"/>
+      <c r="AE13" s="17"/>
+      <c r="AF13" s="17"/>
+      <c r="AG13" s="17"/>
+      <c r="AH13" s="17"/>
+      <c r="AI13" s="17"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>19</v>
+      </c>
+      <c r="B14" s="6">
+        <v>26</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2</v>
+      </c>
+      <c r="D14" s="6">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.34501999999999999</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8983827024520319</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.13775999999999999</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>7.2590011614401861</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.12889</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.7585538055706413</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0.13195999999999999</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="4"/>
+        <v>7.5780539557441653</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.10086000000000001</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="5"/>
+        <v>9.9147332936744004</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="6"/>
+        <v>0.13775999999999999</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="7"/>
+        <v>7.2590011614401861</v>
+      </c>
+      <c r="Q14" s="6">
+        <f t="shared" si="8"/>
+        <v>0.12889</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="9"/>
+        <v>7.7585538055706413</v>
+      </c>
+      <c r="S14" s="6">
+        <v>2.4502000000000002</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="13"/>
+        <v>0.40812994857562646</v>
+      </c>
+      <c r="U14" s="6">
+        <v>0.12189999999999999</v>
+      </c>
+      <c r="V14" s="6">
+        <f t="shared" si="10"/>
+        <v>8.2034454470877769</v>
+      </c>
+      <c r="W14" s="6">
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0.86250000000000004</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="Z14" s="6">
+        <f t="shared" si="11"/>
+        <v>7.8186082877247838</v>
+      </c>
+      <c r="AA14" s="6">
+        <f>O14-M14</f>
+        <v>3.6899999999999988E-2</v>
+      </c>
+      <c r="AB14" s="6">
+        <f t="shared" si="12"/>
+        <v>0.36585365853658536</v>
+      </c>
+      <c r="AC14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.13750000000000001</v>
+      </c>
+      <c r="AD14" s="17"/>
+      <c r="AE14" s="17"/>
+      <c r="AF14" s="17"/>
+      <c r="AG14" s="17"/>
+      <c r="AH14" s="17"/>
+      <c r="AI14" s="17"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>18</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.35428999999999999</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.8225465014536115</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.21551000000000001</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6401559092385503</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.30246000000000001</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="3"/>
+        <v>3.3062223103881503</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0.10861</v>
+      </c>
+      <c r="L15" s="6">
+        <f t="shared" si="4"/>
+        <v>9.2072553171899454</v>
+      </c>
+      <c r="M15" s="6">
+        <v>9.9154999999999993E-2</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="5"/>
+        <v>10.085220109928899</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="6"/>
+        <v>0.21551000000000001</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="7"/>
+        <v>4.6401559092385503</v>
+      </c>
+      <c r="Q15" s="6">
+        <f t="shared" si="8"/>
+        <v>0.10861</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="9"/>
+        <v>9.2072553171899454</v>
+      </c>
+      <c r="S15" s="6">
+        <v>0.47720000000000001</v>
+      </c>
+      <c r="T15" s="10">
+        <f t="shared" si="13"/>
+        <v>2.0955574182732608</v>
+      </c>
+      <c r="U15" s="6">
+        <v>0.13439999999999999</v>
+      </c>
+      <c r="V15" s="6">
+        <f t="shared" si="10"/>
+        <v>7.4404761904761907</v>
+      </c>
+      <c r="W15" s="6">
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="X15" s="6">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="Z15" s="6">
+        <f t="shared" si="11"/>
+        <v>5.4318305268875609</v>
+      </c>
+      <c r="AA15" s="6">
+        <f>O15-M15</f>
+        <v>0.11635500000000001</v>
+      </c>
+      <c r="AB15" s="6">
+        <f t="shared" si="12"/>
+        <v>1.1734657858907771</v>
+      </c>
+      <c r="AC15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.27010000000000001</v>
+      </c>
+      <c r="AD15" s="17"/>
+      <c r="AE15" s="17"/>
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="17"/>
+      <c r="AH15" s="17"/>
+      <c r="AI15" s="17"/>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6">
+        <v>26</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>18</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.31494</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1752079761224361</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0.13680999999999999</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
+        <v>7.3094072070755072</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.21356</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="3"/>
+        <v>4.6825248173815321</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0.60328999999999999</v>
+      </c>
+      <c r="L16" s="6">
+        <f t="shared" si="4"/>
+        <v>1.6575776160718725</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0.40278999999999998</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="5"/>
+        <v>2.4826832840934485</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="6"/>
+        <v>0.13680999999999999</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="7"/>
+        <v>7.3094072070755072</v>
+      </c>
+      <c r="Q16" s="6">
+        <f t="shared" si="8"/>
+        <v>0.21356</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="9"/>
+        <v>4.6825248173815321</v>
+      </c>
+      <c r="S16" s="6">
+        <v>0.77090000000000003</v>
+      </c>
+      <c r="T16" s="10">
+        <f t="shared" si="13"/>
+        <v>1.2971851083149566</v>
+      </c>
+      <c r="U16" s="6">
+        <v>0.32940000000000003</v>
+      </c>
+      <c r="V16" s="6">
+        <f t="shared" si="10"/>
+        <v>3.0358227079538551</v>
+      </c>
+      <c r="W16" s="6">
+        <v>0.1588</v>
+      </c>
+      <c r="X16" s="6">
+        <v>0.84119999999999995</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0.1255</v>
+      </c>
+      <c r="Z16" s="6">
+        <f t="shared" si="11"/>
+        <v>7.9681274900398407</v>
+      </c>
+      <c r="AA16" s="6">
+        <f>O16-M16</f>
+        <v>-0.26597999999999999</v>
+      </c>
+      <c r="AB16" s="6">
+        <f t="shared" si="12"/>
+        <v>-0.66034409990317533</v>
+      </c>
+      <c r="AC16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1588</v>
+      </c>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>24</v>
+      </c>
+      <c r="B17" s="6">
+        <v>26</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>19</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.20165</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>4.9590875278948676</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0.35116000000000003</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>2.8477047499715229</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.25646999999999998</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="3"/>
+        <v>3.8990915116777796</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0.18894</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="4"/>
+        <v>5.2926855086270779</v>
+      </c>
+      <c r="M17" s="6">
+        <v>9.5036999999999996E-2</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="5"/>
+        <v>10.522217662594569</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="6"/>
+        <v>0.20165</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="7"/>
+        <v>4.9590875278948676</v>
+      </c>
+      <c r="Q17" s="6">
+        <f t="shared" si="8"/>
+        <v>0.18894</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="9"/>
+        <v>5.2926855086270779</v>
+      </c>
+      <c r="S17" s="10">
+        <v>659070000000000</v>
+      </c>
+      <c r="T17" s="10">
+        <f t="shared" si="13"/>
+        <v>1.5172895140121686E-15</v>
+      </c>
+      <c r="U17" s="6">
+        <v>0.13350000000000001</v>
+      </c>
+      <c r="V17" s="6">
+        <f t="shared" si="10"/>
+        <v>7.4906367041198498</v>
+      </c>
+      <c r="W17" s="6">
+        <v>0.752</v>
+      </c>
+      <c r="X17" s="6">
+        <v>0.248</v>
+      </c>
+      <c r="Y17" s="6">
+        <v>0.1749</v>
+      </c>
+      <c r="Z17" s="6">
+        <f t="shared" si="11"/>
+        <v>5.7175528873642083</v>
+      </c>
+      <c r="AA17" s="6">
+        <f>O17-M17</f>
+        <v>0.106613</v>
+      </c>
+      <c r="AB17" s="6">
+        <f t="shared" si="12"/>
+        <v>1.1218051916621947</v>
+      </c>
+      <c r="AC17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.248</v>
+      </c>
+      <c r="AD17" s="17"/>
+      <c r="AE17" s="17"/>
+      <c r="AF17" s="17"/>
+      <c r="AG17" s="17"/>
+      <c r="AH17" s="17"/>
+      <c r="AI17" s="17"/>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>26</v>
+      </c>
+      <c r="B18" s="6">
+        <v>26</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6">
+        <v>4.7570000000000001E-2</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>21.021652301870926</v>
+      </c>
+      <c r="G18" s="6">
+        <v>1.1604000000000001</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
+        <v>0.86177180282661148</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.19095999999999999</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="3"/>
+        <v>5.2366987850858822</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0.10170999999999999</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="4"/>
+        <v>9.8318749385507829</v>
+      </c>
+      <c r="M18" s="6">
+        <v>0.10340000000000001</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="5"/>
+        <v>9.6711798839458414</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="6"/>
+        <v>4.7570000000000001E-2</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="7"/>
+        <v>21.021652301870926</v>
+      </c>
+      <c r="Q18" s="6">
+        <f t="shared" si="8"/>
+        <v>0.10170999999999999</v>
+      </c>
+      <c r="R18" s="6">
+        <f t="shared" si="9"/>
+        <v>9.8318749385507829</v>
+      </c>
+      <c r="S18" s="6">
+        <v>0.72219999999999995</v>
+      </c>
+      <c r="T18" s="10">
+        <f t="shared" si="13"/>
+        <v>1.3846579894765993</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0.16350000000000001</v>
+      </c>
+      <c r="V18" s="6">
+        <f t="shared" si="10"/>
+        <v>6.1162079510703364</v>
+      </c>
+      <c r="W18" s="6">
+        <v>0.99829999999999997</v>
+      </c>
+      <c r="X18" s="6">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="Y18" s="6">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="Z18" s="6">
+        <f t="shared" si="11"/>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="AA18" s="6">
+        <f>O18-M18</f>
+        <v>-5.5830000000000005E-2</v>
+      </c>
+      <c r="AB18" s="6">
+        <f t="shared" si="12"/>
+        <v>-0.53994197292069634</v>
+      </c>
+      <c r="AC18" s="6">
+        <f t="shared" si="0"/>
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="AD18" s="17"/>
+      <c r="AE18" s="17"/>
+      <c r="AF18" s="17"/>
+      <c r="AG18" s="17"/>
+      <c r="AH18" s="17"/>
+      <c r="AI18" s="17"/>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>28</v>
+      </c>
+      <c r="B19" s="6">
+        <v>26</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2</v>
+      </c>
+      <c r="D19" s="6">
+        <v>22</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.28499000000000002</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5088950489490855</v>
+      </c>
+      <c r="G19" s="6">
+        <v>4.8591000000000002E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>20.579942787759048</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.16678999999999999</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="3"/>
+        <v>5.9955632831704539</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0.1091</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="4"/>
+        <v>9.1659028414298813</v>
+      </c>
+      <c r="M19" s="6">
+        <v>0.10269</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="5"/>
+        <v>9.7380465478624991</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="6"/>
+        <v>4.8591000000000002E-2</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="7"/>
+        <v>20.579942787759048</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="8"/>
+        <v>0.1091</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="9"/>
+        <v>9.1659028414298813</v>
+      </c>
+      <c r="S19" s="10">
+        <v>845350000000000</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="13"/>
+        <v>1.1829419766960431E-15</v>
+      </c>
+      <c r="U19" s="6">
+        <v>0.1206</v>
+      </c>
+      <c r="V19" s="6">
+        <f t="shared" si="10"/>
+        <v>8.291873963515755</v>
+      </c>
+      <c r="W19" s="6">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="X19" s="6">
+        <v>0.9718</v>
+      </c>
+      <c r="Y19" s="6">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="Z19" s="6">
+        <f t="shared" si="11"/>
+        <v>20.876826722338205</v>
+      </c>
+      <c r="AA19" s="6">
+        <f>O19-M19</f>
+        <v>-5.4099000000000001E-2</v>
+      </c>
+      <c r="AB19" s="6">
+        <f t="shared" si="12"/>
+        <v>-0.52681858019281325</v>
+      </c>
+      <c r="AC19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+      <c r="AF19" s="17"/>
+      <c r="AG19" s="17"/>
+      <c r="AH19" s="17"/>
+      <c r="AI19" s="17"/>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>31</v>
+      </c>
+      <c r="B20" s="6">
+        <v>26</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>18</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.45551999999999998</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
+        <v>2.1952932911837024</v>
+      </c>
+      <c r="G20" s="6">
+        <v>0.17529</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
+        <v>5.704831992697815</v>
+      </c>
+      <c r="I20" s="6">
+        <v>9.1592000000000007E-2</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="3"/>
+        <v>10.917984103415145</v>
+      </c>
+      <c r="K20" s="6">
+        <v>6.6453999999999999E-2</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="4"/>
+        <v>15.048003129984652</v>
+      </c>
+      <c r="M20" s="6">
+        <v>7.4482000000000007E-2</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="5"/>
+        <v>13.426062672860557</v>
+      </c>
+      <c r="O20" s="6">
+        <f t="shared" si="6"/>
+        <v>0.17529</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="7"/>
+        <v>5.704831992697815</v>
+      </c>
+      <c r="Q20" s="6">
+        <f t="shared" si="8"/>
+        <v>6.6453999999999999E-2</v>
+      </c>
+      <c r="R20" s="6">
+        <f t="shared" si="9"/>
+        <v>15.048003129984652</v>
+      </c>
+      <c r="S20" s="10">
+        <v>631890000000000</v>
+      </c>
+      <c r="T20" s="10">
+        <f t="shared" si="13"/>
+        <v>1.5825539255250123E-15</v>
+      </c>
+      <c r="U20" s="6">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="V20" s="6">
+        <f t="shared" si="10"/>
+        <v>17.574692442882249</v>
+      </c>
+      <c r="W20" s="6">
+        <v>0.129</v>
+      </c>
+      <c r="X20" s="6">
+        <v>0.871</v>
+      </c>
+      <c r="Y20" s="6">
+        <v>0.1636</v>
+      </c>
+      <c r="Z20" s="6">
+        <f t="shared" si="11"/>
+        <v>6.1124694376528117</v>
+      </c>
+      <c r="AA20" s="6">
+        <f>O20-M20</f>
+        <v>0.10080799999999999</v>
+      </c>
+      <c r="AB20" s="6">
+        <f t="shared" si="12"/>
+        <v>1.3534545259257269</v>
+      </c>
+      <c r="AC20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.129</v>
+      </c>
+      <c r="AD20" s="17"/>
+      <c r="AE20" s="17"/>
+      <c r="AF20" s="17"/>
+      <c r="AG20" s="17"/>
+      <c r="AH20" s="17"/>
+      <c r="AI20" s="17"/>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>32</v>
+      </c>
+      <c r="B21" s="6">
+        <v>26</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>21</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.25324000000000002</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>3.9488232506712997</v>
+      </c>
+      <c r="G21" s="6">
+        <v>0.46465000000000001</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1521575379317768</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0.26341999999999999</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="3"/>
+        <v>3.7962189659099539</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0.35643999999999998</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="4"/>
+        <v>2.8055212658511954</v>
+      </c>
+      <c r="M21" s="6">
+        <v>0.27112999999999998</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="5"/>
+        <v>3.6882676206985581</v>
+      </c>
+      <c r="O21" s="6">
+        <f t="shared" si="6"/>
+        <v>0.25324000000000002</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="7"/>
+        <v>3.9488232506712997</v>
+      </c>
+      <c r="Q21" s="6">
+        <f t="shared" si="8"/>
+        <v>0.26341999999999999</v>
+      </c>
+      <c r="R21" s="6">
+        <f t="shared" si="9"/>
+        <v>3.7962189659099539</v>
+      </c>
+      <c r="S21" s="10">
+        <v>1282200000000000</v>
+      </c>
+      <c r="T21" s="10">
+        <f t="shared" si="13"/>
+        <v>7.7990953049446262E-16</v>
+      </c>
+      <c r="U21" s="6">
+        <v>0.1186</v>
+      </c>
+      <c r="V21" s="6">
+        <f t="shared" si="10"/>
+        <v>8.4317032040472171</v>
+      </c>
+      <c r="W21" s="6">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="X21" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="Y21" s="6">
+        <v>0.22239999999999999</v>
+      </c>
+      <c r="Z21" s="6">
+        <f t="shared" si="11"/>
+        <v>4.4964028776978422</v>
+      </c>
+      <c r="AA21" s="6">
+        <f>O21-M21</f>
+        <v>-1.7889999999999961E-2</v>
+      </c>
+      <c r="AB21" s="6">
+        <f t="shared" si="12"/>
+        <v>-6.5983107734297095E-2</v>
+      </c>
+      <c r="AC21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="AD21" s="17"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+      <c r="AG21" s="17"/>
+      <c r="AH21" s="17"/>
+      <c r="AI21" s="17"/>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>33</v>
+      </c>
+      <c r="B22" s="6">
+        <v>26</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>23</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.2576</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>3.8819875776397517</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0.16811000000000001</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
+        <v>5.9484861102849322</v>
+      </c>
+      <c r="I22" s="6">
+        <v>0.13625000000000001</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="3"/>
+        <v>7.3394495412844032</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0.16331999999999999</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="4"/>
+        <v>6.1229488121479303</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.18565999999999999</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="5"/>
+        <v>5.3861898093288811</v>
+      </c>
+      <c r="O22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.16811000000000001</v>
+      </c>
+      <c r="P22" s="6">
+        <f t="shared" si="7"/>
+        <v>5.9484861102849322</v>
+      </c>
+      <c r="Q22" s="6">
+        <f t="shared" si="8"/>
+        <v>0.13625000000000001</v>
+      </c>
+      <c r="R22" s="6">
+        <f t="shared" si="9"/>
+        <v>7.3394495412844032</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1.5510999999999999</v>
+      </c>
+      <c r="T22" s="10">
+        <f t="shared" si="13"/>
+        <v>0.64470375862291285</v>
+      </c>
+      <c r="U22" s="6">
+        <v>0.1111</v>
+      </c>
+      <c r="V22" s="6">
+        <f t="shared" si="10"/>
+        <v>9.0009000900090008</v>
+      </c>
+      <c r="W22" s="6">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="X22" s="6">
+        <v>0.70130000000000003</v>
+      </c>
+      <c r="Y22" s="6">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="Z22" s="6">
+        <f t="shared" si="11"/>
+        <v>7.1022727272727266</v>
+      </c>
+      <c r="AA22" s="6">
+        <f>O22-M22</f>
+        <v>-1.7549999999999982E-2</v>
+      </c>
+      <c r="AB22" s="6">
+        <f t="shared" si="12"/>
+        <v>-9.4527631153721758E-2</v>
+      </c>
+      <c r="AC22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="AD22" s="17"/>
+      <c r="AE22" s="17"/>
+      <c r="AF22" s="17"/>
+      <c r="AG22" s="17"/>
+      <c r="AH22" s="17"/>
+      <c r="AI22" s="17"/>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.27953</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
+        <v>3.5774335491718241</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0.13915</v>
+      </c>
+      <c r="H23" s="6">
+        <f t="shared" si="2"/>
+        <v>7.186489399928135</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.28201999999999999</v>
+      </c>
+      <c r="J23" s="6">
+        <f t="shared" si="3"/>
+        <v>3.5458478122119002</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0.22852</v>
+      </c>
+      <c r="L23" s="6">
+        <f t="shared" si="4"/>
+        <v>4.3759845965342201</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0.12778999999999999</v>
+      </c>
+      <c r="N23" s="6">
+        <f t="shared" si="5"/>
+        <v>7.8253384458877857</v>
+      </c>
+      <c r="O23" s="6">
+        <f t="shared" si="6"/>
+        <v>0.13915</v>
+      </c>
+      <c r="P23" s="6">
+        <f t="shared" si="7"/>
+        <v>7.186489399928135</v>
+      </c>
+      <c r="Q23" s="6">
+        <f t="shared" si="8"/>
+        <v>0.22852</v>
+      </c>
+      <c r="R23" s="6">
+        <f t="shared" si="9"/>
+        <v>4.3759845965342201</v>
+      </c>
+      <c r="S23" s="6">
+        <v>1.3409</v>
+      </c>
+      <c r="T23" s="10">
+        <f t="shared" si="13"/>
+        <v>0.74576776791707067</v>
+      </c>
+      <c r="U23" s="6">
+        <v>0.29220000000000002</v>
+      </c>
+      <c r="V23" s="6">
+        <f t="shared" si="10"/>
+        <v>3.4223134839151266</v>
+      </c>
+      <c r="W23" s="6">
+        <v>0.1986</v>
+      </c>
+      <c r="X23" s="6">
+        <v>0.8014</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>0.1246</v>
+      </c>
+      <c r="Z23" s="6">
+        <f t="shared" si="11"/>
+        <v>8.0256821829855536</v>
+      </c>
+      <c r="AA23" s="6">
+        <f>O23-M23</f>
+        <v>1.1360000000000009E-2</v>
+      </c>
+      <c r="AB23" s="6">
+        <f t="shared" si="12"/>
+        <v>8.8895844745285404E-2</v>
+      </c>
+      <c r="AC23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.1986</v>
+      </c>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="17"/>
+      <c r="AH23" s="17"/>
+      <c r="AI23" s="17"/>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>35</v>
+      </c>
+      <c r="B24" s="6">
+        <v>26</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>18</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.2205</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
+        <v>4.5351473922902494</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0.18489</v>
+      </c>
+      <c r="H24" s="6">
+        <f t="shared" si="2"/>
+        <v>5.4086213424198171</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.53776999999999997</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8595310262751734</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0.15404000000000001</v>
+      </c>
+      <c r="L24" s="6">
+        <f t="shared" si="4"/>
+        <v>6.4918203064139179</v>
+      </c>
+      <c r="M24" s="6">
+        <v>0.22042</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5367933944288179</v>
+      </c>
+      <c r="O24" s="6">
+        <f t="shared" si="6"/>
+        <v>0.18489</v>
+      </c>
+      <c r="P24" s="6">
+        <f t="shared" si="7"/>
+        <v>5.4086213424198171</v>
+      </c>
+      <c r="Q24" s="6">
+        <f t="shared" si="8"/>
+        <v>0.15404000000000001</v>
+      </c>
+      <c r="R24" s="6">
+        <f t="shared" si="9"/>
+        <v>6.4918203064139179</v>
+      </c>
+      <c r="S24" s="10">
+        <v>2176300000000000</v>
+      </c>
+      <c r="T24" s="10">
+        <f t="shared" si="13"/>
+        <v>4.594954739695814E-16</v>
+      </c>
+      <c r="U24" s="6">
+        <v>0.21329999999999999</v>
+      </c>
+      <c r="V24" s="6">
+        <f t="shared" si="10"/>
+        <v>4.6882325363338024</v>
+      </c>
+      <c r="W24" s="6">
+        <v>0.4128</v>
+      </c>
+      <c r="X24" s="6">
+        <v>0.58720000000000006</v>
+      </c>
+      <c r="Y24" s="6">
+        <v>0.14169999999999999</v>
+      </c>
+      <c r="Z24" s="6">
+        <f t="shared" si="11"/>
+        <v>7.0571630204657732</v>
+      </c>
+      <c r="AA24" s="6">
+        <f>O24-M24</f>
+        <v>-3.5530000000000006E-2</v>
+      </c>
+      <c r="AB24" s="6">
+        <f t="shared" si="12"/>
+        <v>-0.16119226930405584</v>
+      </c>
+      <c r="AC24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4128</v>
+      </c>
+      <c r="AD24" s="17"/>
+      <c r="AE24" s="17"/>
+      <c r="AF24" s="17"/>
+      <c r="AG24" s="17"/>
+      <c r="AH24" s="17"/>
+      <c r="AI24" s="17"/>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>36</v>
+      </c>
+      <c r="B25" s="6">
+        <v>26</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>19</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.31308999999999998</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>3.1939697850458337</v>
+      </c>
+      <c r="G25" s="6">
+        <v>0.31093999999999999</v>
+      </c>
+      <c r="H25" s="6">
+        <f t="shared" si="2"/>
+        <v>3.216054544285071</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.19791</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="3"/>
+        <v>5.0528017785862263</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0.12553</v>
+      </c>
+      <c r="L25" s="6">
+        <f t="shared" si="4"/>
+        <v>7.9662232135744446</v>
+      </c>
+      <c r="M25" s="6">
+        <v>0.13632</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="5"/>
+        <v>7.335680751173709</v>
+      </c>
+      <c r="O25" s="6">
+        <f t="shared" si="6"/>
+        <v>0.31093999999999999</v>
+      </c>
+      <c r="P25" s="6">
+        <f t="shared" si="7"/>
+        <v>3.216054544285071</v>
+      </c>
+      <c r="Q25" s="6">
+        <f t="shared" si="8"/>
+        <v>0.12553</v>
+      </c>
+      <c r="R25" s="6">
+        <f t="shared" si="9"/>
+        <v>7.9662232135744446</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="T25" s="10">
+        <f t="shared" si="13"/>
+        <v>1.9751135690302193</v>
+      </c>
+      <c r="U25" s="6">
+        <v>9.7799999999999998E-2</v>
+      </c>
+      <c r="V25" s="6">
+        <f t="shared" si="10"/>
+        <v>10.224948875255624</v>
+      </c>
+      <c r="W25" s="6">
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="X25" s="6">
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="Y25" s="6">
+        <v>0.22059999999999999</v>
+      </c>
+      <c r="Z25" s="6">
+        <f t="shared" si="11"/>
+        <v>4.5330915684496826</v>
+      </c>
+      <c r="AA25" s="6">
+        <f>O25-M25</f>
+        <v>0.17462</v>
+      </c>
+      <c r="AB25" s="6">
+        <f t="shared" si="12"/>
+        <v>1.2809565727699532</v>
+      </c>
+      <c r="AC25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="AD25" s="17"/>
+      <c r="AE25" s="17"/>
+      <c r="AF25" s="17"/>
+      <c r="AG25" s="17"/>
+      <c r="AH25" s="17"/>
+      <c r="AI25" s="17"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>37</v>
+      </c>
+      <c r="B26" s="6">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>22</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.36165999999999998</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.7650279267820608</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0.30018</v>
+      </c>
+      <c r="H26" s="6">
+        <f t="shared" si="2"/>
+        <v>3.3313345326137651</v>
+      </c>
+      <c r="I26" s="6">
+        <v>0.22847999999999999</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="3"/>
+        <v>4.3767507002801125</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.15275</v>
+      </c>
+      <c r="L26" s="6">
+        <f t="shared" si="4"/>
+        <v>6.5466448445171848</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0.18325</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="5"/>
+        <v>5.4570259208731242</v>
+      </c>
+      <c r="O26" s="6">
+        <f t="shared" si="6"/>
+        <v>0.30018</v>
+      </c>
+      <c r="P26" s="6">
+        <f t="shared" si="7"/>
+        <v>3.3313345326137651</v>
+      </c>
+      <c r="Q26" s="6">
+        <f t="shared" si="8"/>
+        <v>0.15275</v>
+      </c>
+      <c r="R26" s="6">
+        <f t="shared" si="9"/>
+        <v>6.5466448445171848</v>
+      </c>
+      <c r="S26" s="10">
+        <v>1235200000000000</v>
+      </c>
+      <c r="T26" s="10">
+        <f t="shared" si="13"/>
+        <v>8.0958549222797929E-16</v>
+      </c>
+      <c r="U26" s="6">
+        <v>9.1200000000000003E-2</v>
+      </c>
+      <c r="V26" s="6">
+        <f t="shared" si="10"/>
+        <v>10.964912280701753</v>
+      </c>
+      <c r="W26" s="6">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="X26" s="6">
+        <v>0.59209999999999996</v>
+      </c>
+      <c r="Y26" s="6">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="Z26" s="6">
+        <f t="shared" si="11"/>
+        <v>4.329004329004329</v>
+      </c>
+      <c r="AA26" s="6">
+        <f>O26-M26</f>
+        <v>0.11693000000000001</v>
+      </c>
+      <c r="AB26" s="6">
+        <f t="shared" si="12"/>
+        <v>0.63809004092769439</v>
+      </c>
+      <c r="AC26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="AD26" s="17"/>
+      <c r="AE26" s="17"/>
+      <c r="AF26" s="17"/>
+      <c r="AG26" s="17"/>
+      <c r="AH26" s="17"/>
+      <c r="AI26" s="17"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>39</v>
+      </c>
+      <c r="B27" s="6">
+        <v>26</v>
+      </c>
+      <c r="C27" s="6">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6">
+        <v>43</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.18845999999999999</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>5.3061657646184868</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0.38266</v>
+      </c>
+      <c r="H27" s="6">
+        <f t="shared" si="2"/>
+        <v>2.6132859457481836</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0.16305</v>
+      </c>
+      <c r="J27" s="6">
+        <f t="shared" si="3"/>
+        <v>6.1330880098129406</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0.20884</v>
+      </c>
+      <c r="L27" s="6">
+        <f t="shared" si="4"/>
+        <v>4.7883547213177549</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0.21967999999999999</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="5"/>
+        <v>4.5520757465404227</v>
+      </c>
+      <c r="O27" s="6">
+        <f t="shared" si="6"/>
+        <v>0.18845999999999999</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" si="7"/>
+        <v>5.3061657646184868</v>
+      </c>
+      <c r="Q27" s="6">
+        <f t="shared" si="8"/>
+        <v>0.16305</v>
+      </c>
+      <c r="R27" s="6">
+        <f t="shared" si="9"/>
+        <v>6.1330880098129406</v>
+      </c>
+      <c r="S27" s="6">
+        <v>0.1431</v>
+      </c>
+      <c r="T27" s="10">
+        <f t="shared" si="13"/>
+        <v>6.9881201956673653</v>
+      </c>
+      <c r="U27" s="6">
+        <v>0.33410000000000001</v>
+      </c>
+      <c r="V27" s="6">
+        <f t="shared" si="10"/>
+        <v>2.9931158335827597</v>
+      </c>
+      <c r="W27" s="6">
+        <v>0.80479999999999996</v>
+      </c>
+      <c r="X27" s="6">
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="Y27" s="6">
+        <v>0.1691</v>
+      </c>
+      <c r="Z27" s="6">
+        <f t="shared" si="11"/>
+        <v>5.9136605558840927</v>
+      </c>
+      <c r="AA27" s="6">
+        <f>O27-M27</f>
+        <v>-3.1219999999999998E-2</v>
+      </c>
+      <c r="AB27" s="6">
+        <f t="shared" si="12"/>
+        <v>-0.14211580480699196</v>
+      </c>
+      <c r="AC27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19520000000000001</v>
+      </c>
+      <c r="AD27" s="17"/>
+      <c r="AE27" s="17"/>
+      <c r="AF27" s="17"/>
+      <c r="AG27" s="17"/>
+      <c r="AH27" s="17"/>
+      <c r="AI27" s="17"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E46"/>
+      <c r="F46"/>
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E47"/>
+      <c r="F47"/>
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E48"/>
+      <c r="F48"/>
+      <c r="G48"/>
+      <c r="H48"/>
+    </row>
+    <row r="49" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E49"/>
+      <c r="F49"/>
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E50"/>
+      <c r="F50"/>
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E51"/>
+      <c r="F51"/>
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E54"/>
+      <c r="F54"/>
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E56"/>
+      <c r="F56"/>
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E57"/>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E58"/>
+      <c r="F58"/>
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E59"/>
+      <c r="F59"/>
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E62"/>
+      <c r="F62"/>
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E63"/>
+      <c r="F63"/>
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E64"/>
+      <c r="F64"/>
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E65"/>
+      <c r="F65"/>
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE20C57-8551-C949-92E9-C91AD949E0F8}">
   <dimension ref="A1:V31"/>
   <sheetViews>
@@ -65899,7 +69793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928B2769-DA22-F049-AB54-F3BA765FB117}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
@@ -67886,7 +71780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F95B87-232C-E348-AF66-4DE24F3DFBDF}">
   <dimension ref="A1:H69"/>
   <sheetViews>

--- a/data_analysis/group_cue_data.xlsx
+++ b/data_analysis/group_cue_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a.tiesman/Documents/Research/Human_AV_Motion/data_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB072BD-D070-6849-ADF0-B9B54C81397A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{487FF38C-5DE8-5143-A230-8446251D5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="5" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="data_out" sheetId="3" r:id="rId4"/>
     <sheet name="data_to_analyze" sheetId="2" r:id="rId5"/>
     <sheet name="data_final" sheetId="9" r:id="rId6"/>
-    <sheet name="raw_all" sheetId="1" r:id="rId7"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
-    <sheet name="all_AO_VO" sheetId="8" r:id="rId9"/>
+    <sheet name="trt_and_no_cue" sheetId="10" r:id="rId7"/>
+    <sheet name="raw_all" sheetId="1" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId9"/>
+    <sheet name="all_AO_VO" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="165">
   <si>
     <t>A_Vnoise</t>
   </si>
@@ -443,6 +444,102 @@
   </si>
   <si>
     <t>Worst_Unisensory_Weight</t>
+  </si>
+  <si>
+    <t>First_AO_Std</t>
+  </si>
+  <si>
+    <t>First_AO_Slope</t>
+  </si>
+  <si>
+    <t>First_VO_Std</t>
+  </si>
+  <si>
+    <t>First_VO_Slope</t>
+  </si>
+  <si>
+    <t>First_AV_Aud_Std</t>
+  </si>
+  <si>
+    <t>First_AV_Aud_Slope</t>
+  </si>
+  <si>
+    <t>First_AV_Vis_Std</t>
+  </si>
+  <si>
+    <t>First_AV_Vis_Slope</t>
+  </si>
+  <si>
+    <t>First_AV_AV_Std</t>
+  </si>
+  <si>
+    <t>First_AV_AV_Slope</t>
+  </si>
+  <si>
+    <t>First_Incong_AV_Aud_Std</t>
+  </si>
+  <si>
+    <t>First_Incong_AV_Aud_Slope</t>
+  </si>
+  <si>
+    <t>First_Incong_AV_Vis_Std</t>
+  </si>
+  <si>
+    <t>First_Incong_AV_Vis_Slope</t>
+  </si>
+  <si>
+    <t>First_AUD_Westimate</t>
+  </si>
+  <si>
+    <t>First_VIS_Westimate</t>
+  </si>
+  <si>
+    <t>Second_AO_Std</t>
+  </si>
+  <si>
+    <t>Second_AO_Slope</t>
+  </si>
+  <si>
+    <t>Second_VO_Std</t>
+  </si>
+  <si>
+    <t>Second_VO_Slope</t>
+  </si>
+  <si>
+    <t>Second_AV_Aud_Std</t>
+  </si>
+  <si>
+    <t>Second_AV_Aud_Slope</t>
+  </si>
+  <si>
+    <t>Second_AV_Vis_Std</t>
+  </si>
+  <si>
+    <t>Second_AV_Vis_Slope</t>
+  </si>
+  <si>
+    <t>Second_AV_AV_Slope</t>
+  </si>
+  <si>
+    <t>Second_Incong_AV_Aud_Std</t>
+  </si>
+  <si>
+    <t>Second_Incong_AV_Aud_Slope</t>
+  </si>
+  <si>
+    <t>Second_AV_AV_Std</t>
+  </si>
+  <si>
+    <t>Second_Incong_AV_Vis_Std</t>
+  </si>
+  <si>
+    <t>Second_Incong_AV_Vis_Slope</t>
+  </si>
+  <si>
+    <t>Second_AUD_Westimate</t>
+  </si>
+  <si>
+    <t>Second_VIS_Westimate</t>
   </si>
 </sst>
 </file>
@@ -1028,6 +1125,1415 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F95B87-232C-E348-AF66-4DE24F3DFBDF}">
+  <dimension ref="A1:H69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11">
+        <v>2</v>
+      </c>
+      <c r="D2" s="11">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0.86799000000000004</v>
+      </c>
+      <c r="F2" s="11">
+        <v>-0.1401</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.1249</v>
+      </c>
+      <c r="H2" s="11">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="11">
+        <v>19</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.24379999999999999</v>
+      </c>
+      <c r="F3" s="11">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.1132</v>
+      </c>
+      <c r="H3" s="11">
+        <v>3.9100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>4</v>
+      </c>
+      <c r="B4" s="11">
+        <v>26</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>20</v>
+      </c>
+      <c r="E4" s="11">
+        <v>0.17718999999999999</v>
+      </c>
+      <c r="F4" s="11">
+        <v>-2.6200000000000001E-2</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5.9700000000000003E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+      <c r="D5" s="11">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.28893999999999997</v>
+      </c>
+      <c r="F5" s="11">
+        <v>-2E-3</v>
+      </c>
+      <c r="G5" s="11">
+        <v>1.0147999999999999</v>
+      </c>
+      <c r="H5" s="11">
+        <v>-0.34439999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11">
+        <v>1</v>
+      </c>
+      <c r="D6" s="11">
+        <v>18</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0.2087</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0.105</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.28839999999999999</v>
+      </c>
+      <c r="H6" s="11">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11">
+        <v>2</v>
+      </c>
+      <c r="D7" s="11">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11">
+        <v>0.22957</v>
+      </c>
+      <c r="F7" s="11">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.37669999999999998</v>
+      </c>
+      <c r="H7" s="11">
+        <v>-2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11">
+        <v>26</v>
+      </c>
+      <c r="C8" s="11">
+        <v>2</v>
+      </c>
+      <c r="D8" s="11">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0.21908</v>
+      </c>
+      <c r="F8" s="11">
+        <v>-8.6499999999999994E-2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.16</v>
+      </c>
+      <c r="H8" s="11">
+        <v>-0.38040000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11">
+        <v>26</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+      <c r="D9" s="11">
+        <v>19</v>
+      </c>
+      <c r="E9" s="11">
+        <v>0.31152000000000002</v>
+      </c>
+      <c r="F9" s="11">
+        <v>-5.3100000000000001E-2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="H9" s="11">
+        <v>-7.9500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>13</v>
+      </c>
+      <c r="B10" s="11">
+        <v>26</v>
+      </c>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11">
+        <v>1.143</v>
+      </c>
+      <c r="F10" s="11">
+        <v>-0.31009999999999999</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.92510000000000003</v>
+      </c>
+      <c r="H10" s="11">
+        <v>-6.5799999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>15</v>
+      </c>
+      <c r="B11" s="11">
+        <v>26</v>
+      </c>
+      <c r="C11" s="11">
+        <v>1</v>
+      </c>
+      <c r="D11" s="11">
+        <v>41</v>
+      </c>
+      <c r="E11" s="11">
+        <v>0.80842000000000003</v>
+      </c>
+      <c r="F11" s="11">
+        <v>5.21E-2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0.16950000000000001</v>
+      </c>
+      <c r="H11" s="11">
+        <v>-0.31619999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>17</v>
+      </c>
+      <c r="B12" s="11">
+        <v>26</v>
+      </c>
+      <c r="C12" s="11">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11">
+        <v>22</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0.26182</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.8800000000000001E-2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.33119999999999999</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-8.9499999999999996E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>18</v>
+      </c>
+      <c r="B13" s="11">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1</v>
+      </c>
+      <c r="D13" s="11">
+        <v>18</v>
+      </c>
+      <c r="E13" s="11">
+        <v>0.37341000000000002</v>
+      </c>
+      <c r="F13" s="11">
+        <v>-0.14219999999999999</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="H13" s="11">
+        <v>-0.1221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11">
+        <v>26</v>
+      </c>
+      <c r="C14" s="11">
+        <v>2</v>
+      </c>
+      <c r="D14" s="11">
+        <v>18</v>
+      </c>
+      <c r="E14" s="11">
+        <v>0.34501999999999999</v>
+      </c>
+      <c r="F14" s="11">
+        <v>3.39E-2</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.13780000000000001</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-5.11E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>20</v>
+      </c>
+      <c r="B15" s="11">
+        <v>26</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" s="11">
+        <v>18</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.35428999999999999</v>
+      </c>
+      <c r="F15" s="11">
+        <v>-5.4899999999999997E-2</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.2155</v>
+      </c>
+      <c r="H15" s="11">
+        <v>2.9899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>22</v>
+      </c>
+      <c r="B16" s="11">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11">
+        <v>1</v>
+      </c>
+      <c r="D16" s="11">
+        <v>18</v>
+      </c>
+      <c r="E16" s="11">
+        <v>0.31494</v>
+      </c>
+      <c r="F16" s="11">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.1368</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-0.36209999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>24</v>
+      </c>
+      <c r="B17" s="11">
+        <v>26</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>19</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.20165</v>
+      </c>
+      <c r="F17" s="11">
+        <v>6.9500000000000006E-2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6.1400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>26</v>
+      </c>
+      <c r="B18" s="11">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11">
+        <v>18</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4.7570000000000001E-2</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-0.1016</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1.1604000000000001</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0.31330000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>28</v>
+      </c>
+      <c r="B19" s="11">
+        <v>26</v>
+      </c>
+      <c r="C19" s="11">
+        <v>2</v>
+      </c>
+      <c r="D19" s="11">
+        <v>22</v>
+      </c>
+      <c r="E19" s="11">
+        <v>0.28499000000000002</v>
+      </c>
+      <c r="F19" s="11">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="G19" s="11">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="H19" s="11">
+        <v>0.11269999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12">
+        <v>0.27511999999999998</v>
+      </c>
+      <c r="F20" s="12">
+        <v>-5.9070999999999999E-2</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0.12909999999999999</v>
+      </c>
+      <c r="H20" s="12">
+        <v>-3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12">
+        <v>0.43719999999999998</v>
+      </c>
+      <c r="F21" s="12">
+        <v>-2.0995E-2</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1.2163999999999999</v>
+      </c>
+      <c r="H21" s="12">
+        <v>9.3490000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12">
+        <v>0.26784000000000002</v>
+      </c>
+      <c r="F22" s="12">
+        <v>-4.9342999999999998E-2</v>
+      </c>
+      <c r="G22" s="12">
+        <v>1.1076999999999999</v>
+      </c>
+      <c r="H22" s="12">
+        <v>5.7849999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12">
+        <v>0.47077999999999998</v>
+      </c>
+      <c r="F23" s="12">
+        <v>9.4183000000000003E-2</v>
+      </c>
+      <c r="G23" s="12">
+        <v>0.31180000000000002</v>
+      </c>
+      <c r="H23" s="12">
+        <v>-0.1109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="13">
+        <v>0.22731000000000001</v>
+      </c>
+      <c r="F24" s="13">
+        <v>-1.5136999999999999E-2</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0.3846</v>
+      </c>
+      <c r="H24" s="13">
+        <v>-6.5500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12">
+        <v>0.27953</v>
+      </c>
+      <c r="F25" s="12">
+        <v>4.1355000000000003E-2</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="H25" s="12">
+        <v>-0.41439999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12">
+        <v>0.21354999999999999</v>
+      </c>
+      <c r="F26" s="12">
+        <v>-3.2411000000000002E-2</v>
+      </c>
+      <c r="G26" s="12">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="H26" s="12">
+        <v>1.9290000000000002E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12">
+        <v>0.33878999999999998</v>
+      </c>
+      <c r="F27" s="12">
+        <v>-5.6357999999999998E-2</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0.13109999999999999</v>
+      </c>
+      <c r="H27" s="12">
+        <v>-7.4899999999999994E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12">
+        <v>0.57528999999999997</v>
+      </c>
+      <c r="F28" s="12">
+        <v>0.13552</v>
+      </c>
+      <c r="G28" s="12">
+        <v>0.8286</v>
+      </c>
+      <c r="H28" s="12">
+        <v>0.12361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12">
+        <v>0.26562999999999998</v>
+      </c>
+      <c r="F29" s="12">
+        <v>2.4868000000000001E-2</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0.35630000000000001</v>
+      </c>
+      <c r="H29" s="12">
+        <v>-0.42470000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12">
+        <v>0.46106999999999998</v>
+      </c>
+      <c r="F30" s="12">
+        <v>7.7715999999999993E-2</v>
+      </c>
+      <c r="G30" s="12">
+        <v>0.43909999999999999</v>
+      </c>
+      <c r="H30" s="12">
+        <v>-5.9900000000000002E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="12">
+        <v>0.32507000000000003</v>
+      </c>
+      <c r="F31" s="12">
+        <v>-4.4429999999999999E-3</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0.21290000000000001</v>
+      </c>
+      <c r="H31" s="12">
+        <v>-3.7199999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12">
+        <v>0.25191000000000002</v>
+      </c>
+      <c r="F32" s="12">
+        <v>-7.7071000000000001E-2</v>
+      </c>
+      <c r="G32" s="12">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H32" s="12">
+        <v>-7.0499999999999993E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12">
+        <v>0.45722000000000002</v>
+      </c>
+      <c r="F33" s="12">
+        <v>-6.862E-2</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2.2038000000000002</v>
+      </c>
+      <c r="H33" s="12">
+        <v>-0.35959999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="12">
+        <v>0.20147999999999999</v>
+      </c>
+      <c r="F34" s="12">
+        <v>0.12534000000000001</v>
+      </c>
+      <c r="G34" s="12">
+        <v>0.16020000000000001</v>
+      </c>
+      <c r="H34" s="12">
+        <v>-1.15E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12">
+        <v>0.30142000000000002</v>
+      </c>
+      <c r="F35" s="12">
+        <v>0.11273</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0.45689999999999997</v>
+      </c>
+      <c r="H35" s="12">
+        <v>3.9620000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="12">
+        <v>0.22456000000000001</v>
+      </c>
+      <c r="F36" s="12">
+        <v>0.15039</v>
+      </c>
+      <c r="G36" s="12">
+        <v>0.2923</v>
+      </c>
+      <c r="H36" s="12">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12">
+        <v>0.29465999999999998</v>
+      </c>
+      <c r="F37" s="12">
+        <v>-2.9129999999999998E-3</v>
+      </c>
+      <c r="G37" s="12">
+        <v>2.0834000000000001</v>
+      </c>
+      <c r="H37" s="12">
+        <v>-0.8538</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="12">
+        <v>0.22489000000000001</v>
+      </c>
+      <c r="F38" s="12">
+        <v>1.0428E-2</v>
+      </c>
+      <c r="G38" s="12">
+        <v>0.66049999999999998</v>
+      </c>
+      <c r="H38" s="12">
+        <v>-1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="14">
+        <v>0.33885999999999999</v>
+      </c>
+      <c r="F39" s="14">
+        <v>0.12007</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0.17660000000000001</v>
+      </c>
+      <c r="H39" s="14">
+        <v>1.6490000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12">
+        <v>0.21723000000000001</v>
+      </c>
+      <c r="F40" s="12">
+        <v>-2.273E-2</v>
+      </c>
+      <c r="G40" s="12">
+        <v>0.38729999999999998</v>
+      </c>
+      <c r="H40" s="12">
+        <v>-8.5800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="15">
+        <v>0.32151000000000002</v>
+      </c>
+      <c r="F41" s="15">
+        <v>-2.5283E-2</v>
+      </c>
+      <c r="G41" s="15">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="H41" s="15">
+        <v>-1.47E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="12">
+        <v>0.27522999999999997</v>
+      </c>
+      <c r="F42" s="12">
+        <v>6.7932999999999993E-2</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.47189999999999999</v>
+      </c>
+      <c r="H42" s="12">
+        <v>-0.35749999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="12">
+        <v>0.51112999999999997</v>
+      </c>
+      <c r="F43" s="12">
+        <v>-3.1074999999999998E-2</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0.41539999999999999</v>
+      </c>
+      <c r="H43" s="12">
+        <v>-0.1321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12">
+        <v>0.28749000000000002</v>
+      </c>
+      <c r="F44" s="12">
+        <v>-2.6419000000000002E-2</v>
+      </c>
+      <c r="G44" s="12">
+        <v>0.37469999999999998</v>
+      </c>
+      <c r="H44" s="12">
+        <v>-3.3399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12">
+        <v>0.39283000000000001</v>
+      </c>
+      <c r="F45" s="12">
+        <v>5.3232000000000002E-2</v>
+      </c>
+      <c r="G45" s="12">
+        <v>1.1543000000000001</v>
+      </c>
+      <c r="H45" s="12">
+        <v>6.2359999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12">
+        <v>2.8862999999999999</v>
+      </c>
+      <c r="F46" s="12">
+        <v>-0.11402</v>
+      </c>
+      <c r="G46" s="12">
+        <v>0.39660000000000001</v>
+      </c>
+      <c r="H46" s="12">
+        <v>-0.10879999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12">
+        <v>0.28949999999999998</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1.7471E-2</v>
+      </c>
+      <c r="G47" s="12">
+        <v>0.33889999999999998</v>
+      </c>
+      <c r="H47" s="12">
+        <v>7.5679999999999997E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12">
+        <v>0.45234999999999997</v>
+      </c>
+      <c r="F48" s="12">
+        <v>-2.3553999999999999E-2</v>
+      </c>
+      <c r="G48" s="12">
+        <v>0.26340000000000002</v>
+      </c>
+      <c r="H48" s="12">
+        <v>3.8460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="12">
+        <v>0.76224000000000003</v>
+      </c>
+      <c r="F49" s="12">
+        <v>-0.31807000000000002</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0.29189999999999999</v>
+      </c>
+      <c r="H49" s="12">
+        <v>-2.8400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12">
+        <v>0.50087999999999999</v>
+      </c>
+      <c r="F50" s="12">
+        <v>6.293E-3</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0.1477</v>
+      </c>
+      <c r="H50" s="12">
+        <v>2.1069999999999998E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12">
+        <v>1.2891999999999999</v>
+      </c>
+      <c r="F51" s="12">
+        <v>-0.26239000000000001</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="H51" s="12">
+        <v>-0.37609999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="12">
+        <v>0.33999000000000001</v>
+      </c>
+      <c r="F52" s="12">
+        <v>8.7785000000000002E-2</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.63370000000000004</v>
+      </c>
+      <c r="H52" s="12">
+        <v>0.22833000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12">
+        <v>0.23974999999999999</v>
+      </c>
+      <c r="F53" s="12">
+        <v>-2.7097E-2</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.15049999999999999</v>
+      </c>
+      <c r="H53" s="12">
+        <v>-3.6400000000000002E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="15">
+        <v>0.17116000000000001</v>
+      </c>
+      <c r="F54" s="15">
+        <v>1.2356000000000001E-2</v>
+      </c>
+      <c r="G54" s="15">
+        <v>0.3221</v>
+      </c>
+      <c r="H54" s="15">
+        <v>-0.12379999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="12">
+        <v>0.71536</v>
+      </c>
+      <c r="F55" s="12">
+        <v>-0.16435</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0.14549999999999999</v>
+      </c>
+      <c r="H55" s="12">
+        <v>-3.8899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="13">
+        <v>0.31519000000000003</v>
+      </c>
+      <c r="F56" s="13">
+        <v>-2.0969999999999999E-3</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.27339999999999998</v>
+      </c>
+      <c r="H56" s="13">
+        <v>-8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="15">
+        <v>0.27249000000000001</v>
+      </c>
+      <c r="F57" s="15">
+        <v>1.2952E-2</v>
+      </c>
+      <c r="G57" s="15">
+        <v>0.27239999999999998</v>
+      </c>
+      <c r="H57" s="15">
+        <v>-3.1E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="12">
+        <v>0.20094000000000001</v>
+      </c>
+      <c r="F58" s="12">
+        <v>-1.8699E-2</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0.33479999999999999</v>
+      </c>
+      <c r="H58" s="12">
+        <v>-0.11990000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12">
+        <v>0.24052999999999999</v>
+      </c>
+      <c r="F59" s="12">
+        <v>3.3406999999999999E-2</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0.17330000000000001</v>
+      </c>
+      <c r="H59" s="12">
+        <v>-6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12">
+        <v>0.51856999999999998</v>
+      </c>
+      <c r="F60" s="12">
+        <v>-9.3562000000000006E-2</v>
+      </c>
+      <c r="G60" s="12">
+        <v>0.13289999999999999</v>
+      </c>
+      <c r="H60" s="12">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="12">
+        <v>0.23591999999999999</v>
+      </c>
+      <c r="F61" s="12">
+        <v>3.7504000000000003E-2</v>
+      </c>
+      <c r="G61" s="12">
+        <v>0.16120000000000001</v>
+      </c>
+      <c r="H61" s="12">
+        <v>3.2989999999999998E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12">
+        <v>0.36451</v>
+      </c>
+      <c r="F62" s="12">
+        <v>-2.665E-2</v>
+      </c>
+      <c r="G62" s="12">
+        <v>0.19670000000000001</v>
+      </c>
+      <c r="H62" s="12">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12">
+        <v>0.37707000000000002</v>
+      </c>
+      <c r="F63" s="12">
+        <v>3.9837999999999998E-2</v>
+      </c>
+      <c r="G63" s="12">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="H63" s="12">
+        <v>-2.76E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="12">
+        <v>0.21661</v>
+      </c>
+      <c r="F64" s="12">
+        <v>-2.7989E-2</v>
+      </c>
+      <c r="G64" s="12">
+        <v>0.1454</v>
+      </c>
+      <c r="H64" s="12">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12">
+        <v>0.24193999999999999</v>
+      </c>
+      <c r="F65" s="12">
+        <v>6.3977000000000006E-2</v>
+      </c>
+      <c r="G65" s="12">
+        <v>0.24079999999999999</v>
+      </c>
+      <c r="H65" s="12">
+        <v>-5.8900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12">
+        <v>0.19278999999999999</v>
+      </c>
+      <c r="F66" s="12">
+        <v>-3.1583E-2</v>
+      </c>
+      <c r="G66" s="12">
+        <v>0.23139999999999999</v>
+      </c>
+      <c r="H66" s="12">
+        <v>4.7039999999999998E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="12">
+        <v>0.25674999999999998</v>
+      </c>
+      <c r="F67" s="12">
+        <v>-4.0357999999999998E-2</v>
+      </c>
+      <c r="G67" s="12">
+        <v>0.3165</v>
+      </c>
+      <c r="H67" s="12">
+        <v>-5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="12">
+        <v>0.33048</v>
+      </c>
+      <c r="F68" s="12">
+        <v>-1.6868000000000001E-2</v>
+      </c>
+      <c r="G68" s="12">
+        <v>0.65649999999999997</v>
+      </c>
+      <c r="H68" s="12">
+        <v>-2.7400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="15">
+        <v>0.45715</v>
+      </c>
+      <c r="F69" s="15">
+        <v>7.1623000000000006E-2</v>
+      </c>
+      <c r="G69" s="15">
+        <v>0.1019</v>
+      </c>
+      <c r="H69" s="15">
+        <v>-1.89E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173C476A-4F77-7C4F-BB16-E694E4104B61}">
   <dimension ref="A1:A40"/>
@@ -61534,9 +63040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924BA4F4-0E61-5E41-980B-6C6A3201DD04}">
   <dimension ref="A1:AP69"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K41" sqref="K41"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD39" sqref="AD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65489,8 +66995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8700DC7D-0A2B-3D4D-950C-F31FAF564A57}">
   <dimension ref="A1:AI69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="T60" sqref="T60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -65699,7 +67205,7 @@
         <v>8.0840743734842366</v>
       </c>
       <c r="AA2" s="6">
-        <f>O2-M2</f>
+        <f t="shared" ref="AA2:AA27" si="0">O2-M2</f>
         <v>3.1145999999999993E-2</v>
       </c>
       <c r="AB2" s="6">
@@ -65707,7 +67213,7 @@
         <v>0.33210355710995459</v>
       </c>
       <c r="AC2" s="6">
-        <f t="shared" ref="AC2:AC27" si="0">IF(W2&gt;0.5, X2, W2)</f>
+        <f t="shared" ref="AC2:AC27" si="1">IF(W2&gt;0.5, X2, W2)</f>
         <v>2.0299999999999999E-2</v>
       </c>
       <c r="AD2" s="17"/>
@@ -65734,14 +67240,14 @@
         <v>0.24379999999999999</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" ref="F3:F27" si="1">1/E3</f>
+        <f t="shared" ref="F3:F27" si="2">1/E3</f>
         <v>4.1017227235438884</v>
       </c>
       <c r="G3" s="6">
         <v>0.11321000000000001</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" ref="H3:H27" si="2">1/G3</f>
+        <f>1/G3</f>
         <v>8.8331419485911127</v>
       </c>
       <c r="I3" s="6">
@@ -65766,19 +67272,19 @@
         <v>14.721469791543987</v>
       </c>
       <c r="O3" s="6">
-        <f t="shared" ref="O3:O27" si="6">MIN(E3,G3)</f>
+        <f>MIN(E3,G3)</f>
         <v>0.11321000000000001</v>
       </c>
       <c r="P3" s="6">
-        <f t="shared" ref="P3:P27" si="7">MAX(F3,H3)</f>
+        <f t="shared" ref="P3:P27" si="6">MAX(F3,H3)</f>
         <v>8.8331419485911127</v>
       </c>
       <c r="Q3" s="6">
-        <f t="shared" ref="Q3:Q27" si="8">MIN(I3,K3)</f>
+        <f t="shared" ref="Q3:Q27" si="7">MIN(I3,K3)</f>
         <v>6.0113E-2</v>
       </c>
       <c r="R3" s="6">
-        <f t="shared" ref="R3:R27" si="9">MAX(J3,L3)</f>
+        <f t="shared" ref="R3:R27" si="8">MAX(J3,L3)</f>
         <v>16.635336782393161</v>
       </c>
       <c r="S3" s="10">
@@ -65792,7 +67298,7 @@
         <v>7.6700000000000004E-2</v>
       </c>
       <c r="V3" s="6">
-        <f t="shared" ref="V3:V27" si="10">1/U3</f>
+        <f t="shared" ref="V3:V27" si="9">1/U3</f>
         <v>13.037809647979138</v>
       </c>
       <c r="W3" s="6">
@@ -65805,19 +67311,19 @@
         <v>0.1027</v>
       </c>
       <c r="Z3" s="6">
-        <f t="shared" ref="Z3:Z27" si="11">1/Y3</f>
+        <f t="shared" ref="Z3:Z27" si="10">1/Y3</f>
         <v>9.7370983446932815</v>
       </c>
       <c r="AA3" s="6">
-        <f>O3-M3</f>
+        <f t="shared" si="0"/>
         <v>4.5282000000000003E-2</v>
       </c>
       <c r="AB3" s="6">
-        <f t="shared" ref="AB3:AB27" si="12">(N3-P3)/P3</f>
+        <f t="shared" ref="AB3:AB27" si="11">(N3-P3)/P3</f>
         <v>0.66661759510069496</v>
       </c>
       <c r="AC3" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1774</v>
       </c>
       <c r="AD3" s="17"/>
@@ -65844,14 +67350,14 @@
         <v>0.17718999999999999</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6436593487217115</v>
       </c>
       <c r="G4" s="6">
         <v>0.54901999999999995</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="H3:H27" si="12">1/G4</f>
         <v>1.8214272704090928</v>
       </c>
       <c r="I4" s="6">
@@ -65876,33 +67382,33 @@
         <v>3.2032801588826958</v>
       </c>
       <c r="O4" s="6">
+        <f t="shared" ref="O3:O27" si="13">MIN(E4,G4)</f>
+        <v>0.17718999999999999</v>
+      </c>
+      <c r="P4" s="6">
         <f t="shared" si="6"/>
-        <v>0.17718999999999999</v>
-      </c>
-      <c r="P4" s="6">
+        <v>5.6436593487217115</v>
+      </c>
+      <c r="Q4" s="6">
         <f t="shared" si="7"/>
-        <v>5.6436593487217115</v>
-      </c>
-      <c r="Q4" s="6">
+        <v>0.25725999999999999</v>
+      </c>
+      <c r="R4" s="6">
         <f t="shared" si="8"/>
-        <v>0.25725999999999999</v>
-      </c>
-      <c r="R4" s="6">
-        <f t="shared" si="9"/>
         <v>3.8871180906475939</v>
       </c>
       <c r="S4" s="6">
         <v>0.66090000000000004</v>
       </c>
       <c r="T4" s="10">
-        <f t="shared" ref="T4:T27" si="13">1/S4</f>
+        <f t="shared" ref="T4:T27" si="14">1/S4</f>
         <v>1.5130882130428203</v>
       </c>
       <c r="U4" s="6">
         <v>0.26390000000000002</v>
       </c>
       <c r="V4" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.78931413414172</v>
       </c>
       <c r="W4" s="6">
@@ -65915,19 +67421,19 @@
         <v>0.1686</v>
       </c>
       <c r="Z4" s="6">
+        <f t="shared" si="10"/>
+        <v>5.9311981020166078</v>
+      </c>
+      <c r="AA4" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.13499000000000003</v>
+      </c>
+      <c r="AB4" s="6">
         <f t="shared" si="11"/>
-        <v>5.9311981020166078</v>
-      </c>
-      <c r="AA4" s="6">
-        <f>O4-M4</f>
-        <v>-0.13499000000000003</v>
-      </c>
-      <c r="AB4" s="6">
-        <f t="shared" si="12"/>
         <v>-0.43241078864757515</v>
       </c>
       <c r="AC4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.4299999999999995E-2</v>
       </c>
       <c r="AD4" s="17"/>
@@ -65954,14 +67460,14 @@
         <v>0.28893999999999997</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4609261438360908</v>
       </c>
       <c r="G5" s="6">
         <v>1.0147999999999999</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0.98541584548679551</v>
       </c>
       <c r="I5" s="6">
@@ -65986,33 +67492,33 @@
         <v>3.8654812524159259</v>
       </c>
       <c r="O5" s="6">
+        <f t="shared" si="13"/>
+        <v>0.28893999999999997</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="6"/>
-        <v>0.28893999999999997</v>
-      </c>
-      <c r="P5" s="6">
+        <v>3.4609261438360908</v>
+      </c>
+      <c r="Q5" s="6">
         <f t="shared" si="7"/>
-        <v>3.4609261438360908</v>
-      </c>
-      <c r="Q5" s="6">
+        <v>0.23244000000000001</v>
+      </c>
+      <c r="R5" s="6">
         <f t="shared" si="8"/>
-        <v>0.23244000000000001</v>
-      </c>
-      <c r="R5" s="6">
-        <f t="shared" si="9"/>
         <v>4.3021855102392017</v>
       </c>
       <c r="S5" s="6">
         <v>0.4254</v>
       </c>
       <c r="T5" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3507287259050305</v>
       </c>
       <c r="U5" s="6">
         <v>0.34150000000000003</v>
       </c>
       <c r="V5" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.9282576866764272</v>
       </c>
       <c r="W5" s="6">
@@ -66025,19 +67531,19 @@
         <v>0.27789999999999998</v>
       </c>
       <c r="Z5" s="6">
+        <f t="shared" si="10"/>
+        <v>3.5984166966534725</v>
+      </c>
+      <c r="AA5" s="6">
+        <f t="shared" si="0"/>
+        <v>3.0239999999999989E-2</v>
+      </c>
+      <c r="AB5" s="6">
         <f t="shared" si="11"/>
-        <v>3.5984166966534725</v>
-      </c>
-      <c r="AA5" s="6">
-        <f>O5-M5</f>
-        <v>3.0239999999999989E-2</v>
-      </c>
-      <c r="AB5" s="6">
-        <f t="shared" si="12"/>
         <v>0.11689215307305756</v>
       </c>
       <c r="AC5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="AD5" s="17"/>
@@ -66064,14 +67570,14 @@
         <v>0.2087</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7915668423574509</v>
       </c>
       <c r="G6" s="6">
         <v>0.28835</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>3.4680076296167854</v>
       </c>
       <c r="I6" s="6">
@@ -66096,33 +67602,33 @@
         <v>7.6846230692384543</v>
       </c>
       <c r="O6" s="6">
+        <f t="shared" si="13"/>
+        <v>0.2087</v>
+      </c>
+      <c r="P6" s="6">
         <f t="shared" si="6"/>
-        <v>0.2087</v>
-      </c>
-      <c r="P6" s="6">
+        <v>4.7915668423574509</v>
+      </c>
+      <c r="Q6" s="6">
         <f t="shared" si="7"/>
-        <v>4.7915668423574509</v>
-      </c>
-      <c r="Q6" s="6">
+        <v>8.8451000000000002E-2</v>
+      </c>
+      <c r="R6" s="6">
         <f t="shared" si="8"/>
-        <v>8.8451000000000002E-2</v>
-      </c>
-      <c r="R6" s="6">
-        <f t="shared" si="9"/>
         <v>11.305694678409514</v>
       </c>
       <c r="S6" s="6">
         <v>0.28129999999999999</v>
       </c>
       <c r="T6" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.5549235691432637</v>
       </c>
       <c r="U6" s="6">
         <v>0.18079999999999999</v>
       </c>
       <c r="V6" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.5309734513274336</v>
       </c>
       <c r="W6" s="6">
@@ -66135,19 +67641,19 @@
         <v>0.1691</v>
       </c>
       <c r="Z6" s="6">
+        <f t="shared" si="10"/>
+        <v>5.9136605558840927</v>
+      </c>
+      <c r="AA6" s="6">
+        <f t="shared" si="0"/>
+        <v>7.8570000000000001E-2</v>
+      </c>
+      <c r="AB6" s="6">
         <f t="shared" si="11"/>
-        <v>5.9136605558840927</v>
-      </c>
-      <c r="AA6" s="6">
-        <f>O6-M6</f>
-        <v>7.8570000000000001E-2</v>
-      </c>
-      <c r="AB6" s="6">
-        <f t="shared" si="12"/>
         <v>0.60378083455006537</v>
       </c>
       <c r="AC6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34379999999999999</v>
       </c>
       <c r="AD6" s="17"/>
@@ -66174,14 +67680,14 @@
         <v>0.22957</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.355969856688592</v>
       </c>
       <c r="G7" s="6">
         <v>0.37670999999999999</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>2.6545618645642537</v>
       </c>
       <c r="I7" s="6">
@@ -66206,33 +67712,33 @@
         <v>5.029169181251258</v>
       </c>
       <c r="O7" s="6">
+        <f t="shared" si="13"/>
+        <v>0.22957</v>
+      </c>
+      <c r="P7" s="6">
         <f t="shared" si="6"/>
-        <v>0.22957</v>
-      </c>
-      <c r="P7" s="6">
+        <v>4.355969856688592</v>
+      </c>
+      <c r="Q7" s="6">
         <f t="shared" si="7"/>
-        <v>4.355969856688592</v>
-      </c>
-      <c r="Q7" s="6">
+        <v>0.22509000000000001</v>
+      </c>
+      <c r="R7" s="6">
         <f t="shared" si="8"/>
-        <v>0.22509000000000001</v>
-      </c>
-      <c r="R7" s="6">
-        <f t="shared" si="9"/>
         <v>4.4426673774934464</v>
       </c>
       <c r="S7" s="6">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="T7" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14.771048744460858</v>
       </c>
       <c r="U7" s="6">
         <v>0.61509999999999998</v>
       </c>
       <c r="V7" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.6257519102584945</v>
       </c>
       <c r="W7" s="6">
@@ -66245,19 +67751,19 @@
         <v>0.19600000000000001</v>
       </c>
       <c r="Z7" s="6">
+        <f t="shared" si="10"/>
+        <v>5.1020408163265305</v>
+      </c>
+      <c r="AA7" s="6">
+        <f t="shared" si="0"/>
+        <v>3.0730000000000007E-2</v>
+      </c>
+      <c r="AB7" s="6">
         <f t="shared" si="11"/>
-        <v>5.1020408163265305</v>
-      </c>
-      <c r="AA7" s="6">
-        <f>O7-M7</f>
-        <v>3.0730000000000007E-2</v>
-      </c>
-      <c r="AB7" s="6">
-        <f t="shared" si="12"/>
         <v>0.15454636893985121</v>
       </c>
       <c r="AC7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27079999999999999</v>
       </c>
       <c r="AD7" s="17"/>
@@ -66284,14 +67790,14 @@
         <v>0.21908</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5645426328281911</v>
       </c>
       <c r="G8" s="6">
         <v>0.16001000000000001</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>6.2496093994125363</v>
       </c>
       <c r="I8" s="6">
@@ -66316,33 +67822,33 @@
         <v>7.7591558038485413</v>
       </c>
       <c r="O8" s="6">
+        <f t="shared" si="13"/>
+        <v>0.16001000000000001</v>
+      </c>
+      <c r="P8" s="6">
         <f t="shared" si="6"/>
-        <v>0.16001000000000001</v>
-      </c>
-      <c r="P8" s="6">
+        <v>6.2496093994125363</v>
+      </c>
+      <c r="Q8" s="6">
         <f t="shared" si="7"/>
-        <v>6.2496093994125363</v>
-      </c>
-      <c r="Q8" s="6">
+        <v>0.22509000000000001</v>
+      </c>
+      <c r="R8" s="6">
         <f t="shared" si="8"/>
-        <v>0.22509000000000001</v>
-      </c>
-      <c r="R8" s="6">
-        <f t="shared" si="9"/>
         <v>4.4426673774934464</v>
       </c>
       <c r="S8" s="6">
         <v>6.7699999999999996E-2</v>
       </c>
       <c r="T8" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>14.771048744460858</v>
       </c>
       <c r="U8" s="6">
         <v>4.3052000000000001</v>
       </c>
       <c r="V8" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.23227724612096998</v>
       </c>
       <c r="W8" s="6">
@@ -66355,19 +67861,19 @@
         <v>0.12920000000000001</v>
       </c>
       <c r="Z8" s="6">
+        <f t="shared" si="10"/>
+        <v>7.7399380804953557</v>
+      </c>
+      <c r="AA8" s="6">
+        <f t="shared" si="0"/>
+        <v>3.1130000000000019E-2</v>
+      </c>
+      <c r="AB8" s="6">
         <f t="shared" si="11"/>
-        <v>7.7399380804953557</v>
-      </c>
-      <c r="AA8" s="6">
-        <f>O8-M8</f>
-        <v>3.1130000000000019E-2</v>
-      </c>
-      <c r="AB8" s="6">
-        <f t="shared" si="12"/>
         <v>0.24154252017380518</v>
       </c>
       <c r="AC8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.34789999999999999</v>
       </c>
       <c r="AD8" s="17"/>
@@ -66394,14 +67900,14 @@
         <v>0.31152000000000002</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2100667693888032</v>
       </c>
       <c r="G9" s="6">
         <v>0.16542999999999999</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>6.044852807834129</v>
       </c>
       <c r="I9" s="6">
@@ -66426,33 +67932,33 @@
         <v>11.922645873572263</v>
       </c>
       <c r="O9" s="6">
+        <f t="shared" si="13"/>
+        <v>0.16542999999999999</v>
+      </c>
+      <c r="P9" s="6">
         <f t="shared" si="6"/>
-        <v>0.16542999999999999</v>
-      </c>
-      <c r="P9" s="6">
+        <v>6.044852807834129</v>
+      </c>
+      <c r="Q9" s="6">
         <f t="shared" si="7"/>
-        <v>6.044852807834129</v>
-      </c>
-      <c r="Q9" s="6">
+        <v>4.1535999999999997E-2</v>
+      </c>
+      <c r="R9" s="6">
         <f t="shared" si="8"/>
-        <v>4.1535999999999997E-2</v>
-      </c>
-      <c r="R9" s="6">
-        <f t="shared" si="9"/>
         <v>24.075500770416028</v>
       </c>
       <c r="S9" s="6">
         <v>1.5713999999999999</v>
       </c>
       <c r="T9" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.63637520682194226</v>
       </c>
       <c r="U9" s="6">
         <v>0.18609999999999999</v>
       </c>
       <c r="V9" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>5.3734551316496511</v>
       </c>
       <c r="W9" s="6">
@@ -66465,19 +67971,19 @@
         <v>0.14610000000000001</v>
       </c>
       <c r="Z9" s="6">
+        <f t="shared" si="10"/>
+        <v>6.8446269678302532</v>
+      </c>
+      <c r="AA9" s="6">
+        <f t="shared" si="0"/>
+        <v>8.155599999999999E-2</v>
+      </c>
+      <c r="AB9" s="6">
         <f t="shared" si="11"/>
-        <v>6.8446269678302532</v>
-      </c>
-      <c r="AA9" s="6">
-        <f>O9-M9</f>
-        <v>8.155599999999999E-2</v>
-      </c>
-      <c r="AB9" s="6">
-        <f t="shared" si="12"/>
         <v>0.97236330686505945</v>
       </c>
       <c r="AC9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22</v>
       </c>
       <c r="AD9" s="17"/>
@@ -66504,14 +68010,14 @@
         <v>1.143</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87489063867016625</v>
       </c>
       <c r="G10" s="6">
         <v>0.92508000000000001</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>1.0809875902624637</v>
       </c>
       <c r="I10" s="6">
@@ -66536,33 +68042,33 @@
         <v>7.6475986540226373</v>
       </c>
       <c r="O10" s="6">
+        <f t="shared" si="13"/>
+        <v>0.92508000000000001</v>
+      </c>
+      <c r="P10" s="6">
         <f t="shared" si="6"/>
-        <v>0.92508000000000001</v>
-      </c>
-      <c r="P10" s="6">
+        <v>1.0809875902624637</v>
+      </c>
+      <c r="Q10" s="6">
         <f t="shared" si="7"/>
-        <v>1.0809875902624637</v>
-      </c>
-      <c r="Q10" s="6">
+        <v>0.15026999999999999</v>
+      </c>
+      <c r="R10" s="6">
         <f t="shared" si="8"/>
-        <v>0.15026999999999999</v>
-      </c>
-      <c r="R10" s="6">
-        <f t="shared" si="9"/>
         <v>6.6546882278565258</v>
       </c>
       <c r="S10" s="6">
         <v>2.8881999999999999</v>
       </c>
       <c r="T10" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.34623641022089885</v>
       </c>
       <c r="U10" s="6">
         <v>1E-3</v>
       </c>
       <c r="V10" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
       <c r="W10" s="6">
@@ -66575,19 +68081,19 @@
         <v>0.71909999999999996</v>
       </c>
       <c r="Z10" s="6">
+        <f t="shared" si="10"/>
+        <v>1.3906271728549577</v>
+      </c>
+      <c r="AA10" s="6">
+        <f t="shared" si="0"/>
+        <v>0.79432000000000003</v>
+      </c>
+      <c r="AB10" s="6">
         <f t="shared" si="11"/>
-        <v>1.3906271728549577</v>
-      </c>
-      <c r="AA10" s="6">
-        <f>O10-M10</f>
-        <v>0.79432000000000003</v>
-      </c>
-      <c r="AB10" s="6">
-        <f t="shared" si="12"/>
         <v>6.0746405628632623</v>
       </c>
       <c r="AC10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39579999999999999</v>
       </c>
       <c r="AD10" s="17"/>
@@ -66614,14 +68120,14 @@
         <v>0.80842000000000003</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2369807773187205</v>
       </c>
       <c r="G11" s="6">
         <v>0.16949</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>5.900053100477904</v>
       </c>
       <c r="I11" s="6">
@@ -66646,33 +68152,33 @@
         <v>12.749085253133087</v>
       </c>
       <c r="O11" s="6">
+        <f t="shared" si="13"/>
+        <v>0.16949</v>
+      </c>
+      <c r="P11" s="6">
         <f t="shared" si="6"/>
-        <v>0.16949</v>
-      </c>
-      <c r="P11" s="6">
+        <v>5.900053100477904</v>
+      </c>
+      <c r="Q11" s="6">
         <f t="shared" si="7"/>
-        <v>5.900053100477904</v>
-      </c>
-      <c r="Q11" s="6">
+        <v>0.10151</v>
+      </c>
+      <c r="R11" s="6">
         <f t="shared" si="8"/>
-        <v>0.10151</v>
-      </c>
-      <c r="R11" s="6">
-        <f t="shared" si="9"/>
         <v>9.8512461826421038</v>
       </c>
       <c r="S11" s="10">
         <v>756860000000000</v>
       </c>
       <c r="T11" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3212483154083979E-15</v>
       </c>
       <c r="U11" s="6">
         <v>0.1159</v>
       </c>
       <c r="V11" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8.6281276962899049</v>
       </c>
       <c r="W11" s="6">
@@ -66685,19 +68191,19 @@
         <v>0.16589999999999999</v>
       </c>
       <c r="Z11" s="6">
+        <f t="shared" si="10"/>
+        <v>6.027727546714889</v>
+      </c>
+      <c r="AA11" s="6">
+        <f t="shared" si="0"/>
+        <v>9.1052999999999995E-2</v>
+      </c>
+      <c r="AB11" s="6">
         <f t="shared" si="11"/>
-        <v>6.027727546714889</v>
-      </c>
-      <c r="AA11" s="6">
-        <f>O11-M11</f>
-        <v>9.1052999999999995E-2</v>
-      </c>
-      <c r="AB11" s="6">
-        <f t="shared" si="12"/>
         <v>1.1608424595535269</v>
       </c>
       <c r="AC11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2099999999999999E-2</v>
       </c>
       <c r="AD11" s="17"/>
@@ -66724,14 +68230,14 @@
         <v>0.26182</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8194179207088839</v>
       </c>
       <c r="G12" s="6">
         <v>0.33117999999999997</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>3.0195060088169576</v>
       </c>
       <c r="I12" s="6">
@@ -66756,33 +68262,33 @@
         <v>6.9861673885706308</v>
       </c>
       <c r="O12" s="6">
+        <f t="shared" si="13"/>
+        <v>0.26182</v>
+      </c>
+      <c r="P12" s="6">
         <f t="shared" si="6"/>
-        <v>0.26182</v>
-      </c>
-      <c r="P12" s="6">
+        <v>3.8194179207088839</v>
+      </c>
+      <c r="Q12" s="6">
         <f t="shared" si="7"/>
-        <v>3.8194179207088839</v>
-      </c>
-      <c r="Q12" s="6">
+        <v>0.13346</v>
+      </c>
+      <c r="R12" s="6">
         <f t="shared" si="8"/>
-        <v>0.13346</v>
-      </c>
-      <c r="R12" s="6">
-        <f t="shared" si="9"/>
         <v>7.4928817623257906</v>
       </c>
       <c r="S12" s="6">
         <v>0.37940000000000002</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.6357406431207169</v>
       </c>
       <c r="U12" s="6">
         <v>0.1401</v>
       </c>
       <c r="V12" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.1377587437544614</v>
       </c>
       <c r="W12" s="6">
@@ -66795,19 +68301,19 @@
         <v>0.2054</v>
       </c>
       <c r="Z12" s="6">
+        <f t="shared" si="10"/>
+        <v>4.8685491723466408</v>
+      </c>
+      <c r="AA12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11868000000000001</v>
+      </c>
+      <c r="AB12" s="6">
         <f t="shared" si="11"/>
-        <v>4.8685491723466408</v>
-      </c>
-      <c r="AA12" s="6">
-        <f>O12-M12</f>
-        <v>0.11868000000000001</v>
-      </c>
-      <c r="AB12" s="6">
-        <f t="shared" si="12"/>
         <v>0.82911834567556264</v>
       </c>
       <c r="AC12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.3846</v>
       </c>
       <c r="AD12" s="17"/>
@@ -66834,14 +68340,14 @@
         <v>0.37341000000000002</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6780214777322513</v>
       </c>
       <c r="G13" s="6">
         <v>0.17659</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>5.6628348151084431</v>
       </c>
       <c r="I13" s="6">
@@ -66866,33 +68372,33 @@
         <v>10.927886874515076</v>
       </c>
       <c r="O13" s="6">
+        <f t="shared" si="13"/>
+        <v>0.17659</v>
+      </c>
+      <c r="P13" s="6">
         <f t="shared" si="6"/>
-        <v>0.17659</v>
-      </c>
-      <c r="P13" s="6">
+        <v>5.6628348151084431</v>
+      </c>
+      <c r="Q13" s="6">
         <f t="shared" si="7"/>
-        <v>5.6628348151084431</v>
-      </c>
-      <c r="Q13" s="6">
+        <v>0.13955000000000001</v>
+      </c>
+      <c r="R13" s="6">
         <f t="shared" si="8"/>
-        <v>0.13955000000000001</v>
-      </c>
-      <c r="R13" s="6">
-        <f t="shared" si="9"/>
         <v>7.1658903618774632</v>
       </c>
       <c r="S13" s="10">
         <v>424190000000000</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.3574341686508405E-15</v>
       </c>
       <c r="U13" s="6">
         <v>0.1171</v>
       </c>
       <c r="V13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8.5397096498719041</v>
       </c>
       <c r="W13" s="6">
@@ -66905,19 +68411,19 @@
         <v>0.15959999999999999</v>
       </c>
       <c r="Z13" s="6">
+        <f t="shared" si="10"/>
+        <v>6.2656641604010028</v>
+      </c>
+      <c r="AA13" s="6">
+        <f t="shared" si="0"/>
+        <v>8.5081000000000004E-2</v>
+      </c>
+      <c r="AB13" s="6">
         <f t="shared" si="11"/>
-        <v>6.2656641604010028</v>
-      </c>
-      <c r="AA13" s="6">
-        <f>O13-M13</f>
-        <v>8.5081000000000004E-2</v>
-      </c>
-      <c r="AB13" s="6">
-        <f t="shared" si="12"/>
         <v>0.92975554317061737</v>
       </c>
       <c r="AC13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.18279999999999999</v>
       </c>
       <c r="AD13" s="17"/>
@@ -66944,14 +68450,14 @@
         <v>0.34501999999999999</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8983827024520319</v>
       </c>
       <c r="G14" s="6">
         <v>0.13775999999999999</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>7.2590011614401861</v>
       </c>
       <c r="I14" s="6">
@@ -66976,33 +68482,33 @@
         <v>9.9147332936744004</v>
       </c>
       <c r="O14" s="6">
+        <f t="shared" si="13"/>
+        <v>0.13775999999999999</v>
+      </c>
+      <c r="P14" s="6">
         <f t="shared" si="6"/>
-        <v>0.13775999999999999</v>
-      </c>
-      <c r="P14" s="6">
+        <v>7.2590011614401861</v>
+      </c>
+      <c r="Q14" s="6">
         <f t="shared" si="7"/>
-        <v>7.2590011614401861</v>
-      </c>
-      <c r="Q14" s="6">
+        <v>0.12889</v>
+      </c>
+      <c r="R14" s="6">
         <f t="shared" si="8"/>
-        <v>0.12889</v>
-      </c>
-      <c r="R14" s="6">
-        <f t="shared" si="9"/>
         <v>7.7585538055706413</v>
       </c>
       <c r="S14" s="6">
         <v>2.4502000000000002</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.40812994857562646</v>
       </c>
       <c r="U14" s="6">
         <v>0.12189999999999999</v>
       </c>
       <c r="V14" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8.2034454470877769</v>
       </c>
       <c r="W14" s="6">
@@ -67015,19 +68521,19 @@
         <v>0.12790000000000001</v>
       </c>
       <c r="Z14" s="6">
+        <f t="shared" si="10"/>
+        <v>7.8186082877247838</v>
+      </c>
+      <c r="AA14" s="6">
+        <f t="shared" si="0"/>
+        <v>3.6899999999999988E-2</v>
+      </c>
+      <c r="AB14" s="6">
         <f t="shared" si="11"/>
-        <v>7.8186082877247838</v>
-      </c>
-      <c r="AA14" s="6">
-        <f>O14-M14</f>
-        <v>3.6899999999999988E-2</v>
-      </c>
-      <c r="AB14" s="6">
-        <f t="shared" si="12"/>
         <v>0.36585365853658536</v>
       </c>
       <c r="AC14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13750000000000001</v>
       </c>
       <c r="AD14" s="17"/>
@@ -67054,14 +68560,14 @@
         <v>0.35428999999999999</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8225465014536115</v>
       </c>
       <c r="G15" s="6">
         <v>0.21551000000000001</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>4.6401559092385503</v>
       </c>
       <c r="I15" s="6">
@@ -67086,33 +68592,33 @@
         <v>10.085220109928899</v>
       </c>
       <c r="O15" s="6">
+        <f t="shared" si="13"/>
+        <v>0.21551000000000001</v>
+      </c>
+      <c r="P15" s="6">
         <f t="shared" si="6"/>
-        <v>0.21551000000000001</v>
-      </c>
-      <c r="P15" s="6">
+        <v>4.6401559092385503</v>
+      </c>
+      <c r="Q15" s="6">
         <f t="shared" si="7"/>
-        <v>4.6401559092385503</v>
-      </c>
-      <c r="Q15" s="6">
+        <v>0.10861</v>
+      </c>
+      <c r="R15" s="6">
         <f t="shared" si="8"/>
-        <v>0.10861</v>
-      </c>
-      <c r="R15" s="6">
-        <f t="shared" si="9"/>
         <v>9.2072553171899454</v>
       </c>
       <c r="S15" s="6">
         <v>0.47720000000000001</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2.0955574182732608</v>
       </c>
       <c r="U15" s="6">
         <v>0.13439999999999999</v>
       </c>
       <c r="V15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.4404761904761907</v>
       </c>
       <c r="W15" s="6">
@@ -67125,19 +68631,19 @@
         <v>0.18410000000000001</v>
       </c>
       <c r="Z15" s="6">
+        <f t="shared" si="10"/>
+        <v>5.4318305268875609</v>
+      </c>
+      <c r="AA15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11635500000000001</v>
+      </c>
+      <c r="AB15" s="6">
         <f t="shared" si="11"/>
-        <v>5.4318305268875609</v>
-      </c>
-      <c r="AA15" s="6">
-        <f>O15-M15</f>
-        <v>0.11635500000000001</v>
-      </c>
-      <c r="AB15" s="6">
-        <f t="shared" si="12"/>
         <v>1.1734657858907771</v>
       </c>
       <c r="AC15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27010000000000001</v>
       </c>
       <c r="AD15" s="17"/>
@@ -67164,14 +68670,14 @@
         <v>0.31494</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1752079761224361</v>
       </c>
       <c r="G16" s="6">
         <v>0.13680999999999999</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>7.3094072070755072</v>
       </c>
       <c r="I16" s="6">
@@ -67196,33 +68702,33 @@
         <v>2.4826832840934485</v>
       </c>
       <c r="O16" s="6">
+        <f t="shared" si="13"/>
+        <v>0.13680999999999999</v>
+      </c>
+      <c r="P16" s="6">
         <f t="shared" si="6"/>
-        <v>0.13680999999999999</v>
-      </c>
-      <c r="P16" s="6">
+        <v>7.3094072070755072</v>
+      </c>
+      <c r="Q16" s="6">
         <f t="shared" si="7"/>
-        <v>7.3094072070755072</v>
-      </c>
-      <c r="Q16" s="6">
+        <v>0.21356</v>
+      </c>
+      <c r="R16" s="6">
         <f t="shared" si="8"/>
-        <v>0.21356</v>
-      </c>
-      <c r="R16" s="6">
-        <f t="shared" si="9"/>
         <v>4.6825248173815321</v>
       </c>
       <c r="S16" s="6">
         <v>0.77090000000000003</v>
       </c>
       <c r="T16" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.2971851083149566</v>
       </c>
       <c r="U16" s="6">
         <v>0.32940000000000003</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.0358227079538551</v>
       </c>
       <c r="W16" s="6">
@@ -67235,19 +68741,19 @@
         <v>0.1255</v>
       </c>
       <c r="Z16" s="6">
+        <f t="shared" si="10"/>
+        <v>7.9681274900398407</v>
+      </c>
+      <c r="AA16" s="6">
+        <f t="shared" si="0"/>
+        <v>-0.26597999999999999</v>
+      </c>
+      <c r="AB16" s="6">
         <f t="shared" si="11"/>
-        <v>7.9681274900398407</v>
-      </c>
-      <c r="AA16" s="6">
-        <f>O16-M16</f>
-        <v>-0.26597999999999999</v>
-      </c>
-      <c r="AB16" s="6">
-        <f t="shared" si="12"/>
         <v>-0.66034409990317533</v>
       </c>
       <c r="AC16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1588</v>
       </c>
       <c r="AD16" s="17"/>
@@ -67274,14 +68780,14 @@
         <v>0.20165</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.9590875278948676</v>
       </c>
       <c r="G17" s="6">
         <v>0.35116000000000003</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>2.8477047499715229</v>
       </c>
       <c r="I17" s="6">
@@ -67306,33 +68812,33 @@
         <v>10.522217662594569</v>
       </c>
       <c r="O17" s="6">
+        <f t="shared" si="13"/>
+        <v>0.20165</v>
+      </c>
+      <c r="P17" s="6">
         <f t="shared" si="6"/>
-        <v>0.20165</v>
-      </c>
-      <c r="P17" s="6">
+        <v>4.9590875278948676</v>
+      </c>
+      <c r="Q17" s="6">
         <f t="shared" si="7"/>
-        <v>4.9590875278948676</v>
-      </c>
-      <c r="Q17" s="6">
+        <v>0.18894</v>
+      </c>
+      <c r="R17" s="6">
         <f t="shared" si="8"/>
-        <v>0.18894</v>
-      </c>
-      <c r="R17" s="6">
-        <f t="shared" si="9"/>
         <v>5.2926855086270779</v>
       </c>
       <c r="S17" s="10">
         <v>659070000000000</v>
       </c>
       <c r="T17" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5172895140121686E-15</v>
       </c>
       <c r="U17" s="6">
         <v>0.13350000000000001</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>7.4906367041198498</v>
       </c>
       <c r="W17" s="6">
@@ -67345,19 +68851,19 @@
         <v>0.1749</v>
       </c>
       <c r="Z17" s="6">
+        <f t="shared" si="10"/>
+        <v>5.7175528873642083</v>
+      </c>
+      <c r="AA17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.106613</v>
+      </c>
+      <c r="AB17" s="6">
         <f t="shared" si="11"/>
-        <v>5.7175528873642083</v>
-      </c>
-      <c r="AA17" s="6">
-        <f>O17-M17</f>
-        <v>0.106613</v>
-      </c>
-      <c r="AB17" s="6">
-        <f t="shared" si="12"/>
         <v>1.1218051916621947</v>
       </c>
       <c r="AC17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.248</v>
       </c>
       <c r="AD17" s="17"/>
@@ -67384,14 +68890,14 @@
         <v>4.7570000000000001E-2</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21.021652301870926</v>
       </c>
       <c r="G18" s="6">
         <v>1.1604000000000001</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0.86177180282661148</v>
       </c>
       <c r="I18" s="6">
@@ -67416,33 +68922,33 @@
         <v>9.6711798839458414</v>
       </c>
       <c r="O18" s="6">
+        <f t="shared" si="13"/>
+        <v>4.7570000000000001E-2</v>
+      </c>
+      <c r="P18" s="6">
         <f t="shared" si="6"/>
-        <v>4.7570000000000001E-2</v>
-      </c>
-      <c r="P18" s="6">
+        <v>21.021652301870926</v>
+      </c>
+      <c r="Q18" s="6">
         <f t="shared" si="7"/>
-        <v>21.021652301870926</v>
-      </c>
-      <c r="Q18" s="6">
+        <v>0.10170999999999999</v>
+      </c>
+      <c r="R18" s="6">
         <f t="shared" si="8"/>
-        <v>0.10170999999999999</v>
-      </c>
-      <c r="R18" s="6">
-        <f t="shared" si="9"/>
         <v>9.8318749385507829</v>
       </c>
       <c r="S18" s="6">
         <v>0.72219999999999995</v>
       </c>
       <c r="T18" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3846579894765993</v>
       </c>
       <c r="U18" s="6">
         <v>0.16350000000000001</v>
       </c>
       <c r="V18" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>6.1162079510703364</v>
       </c>
       <c r="W18" s="6">
@@ -67455,19 +68961,19 @@
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="Z18" s="6">
+        <f t="shared" si="10"/>
+        <v>21.05263157894737</v>
+      </c>
+      <c r="AA18" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.5830000000000005E-2</v>
+      </c>
+      <c r="AB18" s="6">
         <f t="shared" si="11"/>
-        <v>21.05263157894737</v>
-      </c>
-      <c r="AA18" s="6">
-        <f>O18-M18</f>
-        <v>-5.5830000000000005E-2</v>
-      </c>
-      <c r="AB18" s="6">
-        <f t="shared" si="12"/>
         <v>-0.53994197292069634</v>
       </c>
       <c r="AC18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6999999999999999E-3</v>
       </c>
       <c r="AD18" s="17"/>
@@ -67494,14 +69000,14 @@
         <v>0.28499000000000002</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5088950489490855</v>
       </c>
       <c r="G19" s="6">
         <v>4.8591000000000002E-2</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>20.579942787759048</v>
       </c>
       <c r="I19" s="6">
@@ -67526,33 +69032,33 @@
         <v>9.7380465478624991</v>
       </c>
       <c r="O19" s="6">
+        <f t="shared" si="13"/>
+        <v>4.8591000000000002E-2</v>
+      </c>
+      <c r="P19" s="6">
         <f t="shared" si="6"/>
-        <v>4.8591000000000002E-2</v>
-      </c>
-      <c r="P19" s="6">
+        <v>20.579942787759048</v>
+      </c>
+      <c r="Q19" s="6">
         <f t="shared" si="7"/>
-        <v>20.579942787759048</v>
-      </c>
-      <c r="Q19" s="6">
+        <v>0.1091</v>
+      </c>
+      <c r="R19" s="6">
         <f t="shared" si="8"/>
-        <v>0.1091</v>
-      </c>
-      <c r="R19" s="6">
-        <f t="shared" si="9"/>
         <v>9.1659028414298813</v>
       </c>
       <c r="S19" s="10">
         <v>845350000000000</v>
       </c>
       <c r="T19" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.1829419766960431E-15</v>
       </c>
       <c r="U19" s="6">
         <v>0.1206</v>
       </c>
       <c r="V19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8.291873963515755</v>
       </c>
       <c r="W19" s="6">
@@ -67565,19 +69071,19 @@
         <v>4.7899999999999998E-2</v>
       </c>
       <c r="Z19" s="6">
+        <f t="shared" si="10"/>
+        <v>20.876826722338205</v>
+      </c>
+      <c r="AA19" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.4099000000000001E-2</v>
+      </c>
+      <c r="AB19" s="6">
         <f t="shared" si="11"/>
-        <v>20.876826722338205</v>
-      </c>
-      <c r="AA19" s="6">
-        <f>O19-M19</f>
-        <v>-5.4099000000000001E-2</v>
-      </c>
-      <c r="AB19" s="6">
-        <f t="shared" si="12"/>
         <v>-0.52681858019281325</v>
       </c>
       <c r="AC19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8199999999999999E-2</v>
       </c>
       <c r="AD19" s="17"/>
@@ -67604,14 +69110,14 @@
         <v>0.45551999999999998</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1952932911837024</v>
       </c>
       <c r="G20" s="6">
         <v>0.17529</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>5.704831992697815</v>
       </c>
       <c r="I20" s="6">
@@ -67636,33 +69142,33 @@
         <v>13.426062672860557</v>
       </c>
       <c r="O20" s="6">
+        <f t="shared" si="13"/>
+        <v>0.17529</v>
+      </c>
+      <c r="P20" s="6">
         <f t="shared" si="6"/>
-        <v>0.17529</v>
-      </c>
-      <c r="P20" s="6">
+        <v>5.704831992697815</v>
+      </c>
+      <c r="Q20" s="6">
         <f t="shared" si="7"/>
-        <v>5.704831992697815</v>
-      </c>
-      <c r="Q20" s="6">
+        <v>6.6453999999999999E-2</v>
+      </c>
+      <c r="R20" s="6">
         <f t="shared" si="8"/>
-        <v>6.6453999999999999E-2</v>
-      </c>
-      <c r="R20" s="6">
-        <f t="shared" si="9"/>
         <v>15.048003129984652</v>
       </c>
       <c r="S20" s="10">
         <v>631890000000000</v>
       </c>
       <c r="T20" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.5825539255250123E-15</v>
       </c>
       <c r="U20" s="6">
         <v>5.6899999999999999E-2</v>
       </c>
       <c r="V20" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>17.574692442882249</v>
       </c>
       <c r="W20" s="6">
@@ -67675,19 +69181,19 @@
         <v>0.1636</v>
       </c>
       <c r="Z20" s="6">
+        <f t="shared" si="10"/>
+        <v>6.1124694376528117</v>
+      </c>
+      <c r="AA20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.10080799999999999</v>
+      </c>
+      <c r="AB20" s="6">
         <f t="shared" si="11"/>
-        <v>6.1124694376528117</v>
-      </c>
-      <c r="AA20" s="6">
-        <f>O20-M20</f>
-        <v>0.10080799999999999</v>
-      </c>
-      <c r="AB20" s="6">
-        <f t="shared" si="12"/>
         <v>1.3534545259257269</v>
       </c>
       <c r="AC20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.129</v>
       </c>
       <c r="AD20" s="17"/>
@@ -67714,14 +69220,14 @@
         <v>0.25324000000000002</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9488232506712997</v>
       </c>
       <c r="G21" s="6">
         <v>0.46465000000000001</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>2.1521575379317768</v>
       </c>
       <c r="I21" s="6">
@@ -67746,33 +69252,33 @@
         <v>3.6882676206985581</v>
       </c>
       <c r="O21" s="6">
+        <f t="shared" si="13"/>
+        <v>0.25324000000000002</v>
+      </c>
+      <c r="P21" s="6">
         <f t="shared" si="6"/>
-        <v>0.25324000000000002</v>
-      </c>
-      <c r="P21" s="6">
+        <v>3.9488232506712997</v>
+      </c>
+      <c r="Q21" s="6">
         <f t="shared" si="7"/>
-        <v>3.9488232506712997</v>
-      </c>
-      <c r="Q21" s="6">
+        <v>0.26341999999999999</v>
+      </c>
+      <c r="R21" s="6">
         <f t="shared" si="8"/>
-        <v>0.26341999999999999</v>
-      </c>
-      <c r="R21" s="6">
-        <f t="shared" si="9"/>
         <v>3.7962189659099539</v>
       </c>
       <c r="S21" s="10">
         <v>1282200000000000</v>
       </c>
       <c r="T21" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>7.7990953049446262E-16</v>
       </c>
       <c r="U21" s="6">
         <v>0.1186</v>
       </c>
       <c r="V21" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>8.4317032040472171</v>
       </c>
       <c r="W21" s="6">
@@ -67785,19 +69291,19 @@
         <v>0.22239999999999999</v>
       </c>
       <c r="Z21" s="6">
+        <f t="shared" si="10"/>
+        <v>4.4964028776978422</v>
+      </c>
+      <c r="AA21" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.7889999999999961E-2</v>
+      </c>
+      <c r="AB21" s="6">
         <f t="shared" si="11"/>
-        <v>4.4964028776978422</v>
-      </c>
-      <c r="AA21" s="6">
-        <f>O21-M21</f>
-        <v>-1.7889999999999961E-2</v>
-      </c>
-      <c r="AB21" s="6">
-        <f t="shared" si="12"/>
         <v>-6.5983107734297095E-2</v>
       </c>
       <c r="AC21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22900000000000001</v>
       </c>
       <c r="AD21" s="17"/>
@@ -67824,14 +69330,14 @@
         <v>0.2576</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.8819875776397517</v>
       </c>
       <c r="G22" s="6">
         <v>0.16811000000000001</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>5.9484861102849322</v>
       </c>
       <c r="I22" s="6">
@@ -67856,33 +69362,33 @@
         <v>5.3861898093288811</v>
       </c>
       <c r="O22" s="6">
+        <f t="shared" si="13"/>
+        <v>0.16811000000000001</v>
+      </c>
+      <c r="P22" s="6">
         <f t="shared" si="6"/>
-        <v>0.16811000000000001</v>
-      </c>
-      <c r="P22" s="6">
+        <v>5.9484861102849322</v>
+      </c>
+      <c r="Q22" s="6">
         <f t="shared" si="7"/>
-        <v>5.9484861102849322</v>
-      </c>
-      <c r="Q22" s="6">
+        <v>0.13625000000000001</v>
+      </c>
+      <c r="R22" s="6">
         <f t="shared" si="8"/>
-        <v>0.13625000000000001</v>
-      </c>
-      <c r="R22" s="6">
-        <f t="shared" si="9"/>
         <v>7.3394495412844032</v>
       </c>
       <c r="S22" s="6">
         <v>1.5510999999999999</v>
       </c>
       <c r="T22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.64470375862291285</v>
       </c>
       <c r="U22" s="6">
         <v>0.1111</v>
       </c>
       <c r="V22" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>9.0009000900090008</v>
       </c>
       <c r="W22" s="6">
@@ -67895,19 +69401,19 @@
         <v>0.14080000000000001</v>
       </c>
       <c r="Z22" s="6">
+        <f t="shared" si="10"/>
+        <v>7.1022727272727266</v>
+      </c>
+      <c r="AA22" s="6">
+        <f t="shared" si="0"/>
+        <v>-1.7549999999999982E-2</v>
+      </c>
+      <c r="AB22" s="6">
         <f t="shared" si="11"/>
-        <v>7.1022727272727266</v>
-      </c>
-      <c r="AA22" s="6">
-        <f>O22-M22</f>
-        <v>-1.7549999999999982E-2</v>
-      </c>
-      <c r="AB22" s="6">
-        <f t="shared" si="12"/>
         <v>-9.4527631153721758E-2</v>
       </c>
       <c r="AC22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29870000000000002</v>
       </c>
       <c r="AD22" s="17"/>
@@ -67934,14 +69440,14 @@
         <v>0.27953</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5774335491718241</v>
       </c>
       <c r="G23" s="6">
         <v>0.13915</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>7.186489399928135</v>
       </c>
       <c r="I23" s="6">
@@ -67966,33 +69472,33 @@
         <v>7.8253384458877857</v>
       </c>
       <c r="O23" s="6">
+        <f t="shared" si="13"/>
+        <v>0.13915</v>
+      </c>
+      <c r="P23" s="6">
         <f t="shared" si="6"/>
-        <v>0.13915</v>
-      </c>
-      <c r="P23" s="6">
+        <v>7.186489399928135</v>
+      </c>
+      <c r="Q23" s="6">
         <f t="shared" si="7"/>
-        <v>7.186489399928135</v>
-      </c>
-      <c r="Q23" s="6">
+        <v>0.22852</v>
+      </c>
+      <c r="R23" s="6">
         <f t="shared" si="8"/>
-        <v>0.22852</v>
-      </c>
-      <c r="R23" s="6">
-        <f t="shared" si="9"/>
         <v>4.3759845965342201</v>
       </c>
       <c r="S23" s="6">
         <v>1.3409</v>
       </c>
       <c r="T23" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.74576776791707067</v>
       </c>
       <c r="U23" s="6">
         <v>0.29220000000000002</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.4223134839151266</v>
       </c>
       <c r="W23" s="6">
@@ -68005,19 +69511,19 @@
         <v>0.1246</v>
       </c>
       <c r="Z23" s="6">
+        <f t="shared" si="10"/>
+        <v>8.0256821829855536</v>
+      </c>
+      <c r="AA23" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1360000000000009E-2</v>
+      </c>
+      <c r="AB23" s="6">
         <f t="shared" si="11"/>
-        <v>8.0256821829855536</v>
-      </c>
-      <c r="AA23" s="6">
-        <f>O23-M23</f>
-        <v>1.1360000000000009E-2</v>
-      </c>
-      <c r="AB23" s="6">
-        <f t="shared" si="12"/>
         <v>8.8895844745285404E-2</v>
       </c>
       <c r="AC23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1986</v>
       </c>
       <c r="AD23" s="17"/>
@@ -68044,14 +69550,14 @@
         <v>0.2205</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.5351473922902494</v>
       </c>
       <c r="G24" s="6">
         <v>0.18489</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>5.4086213424198171</v>
       </c>
       <c r="I24" s="6">
@@ -68076,33 +69582,33 @@
         <v>4.5367933944288179</v>
       </c>
       <c r="O24" s="6">
+        <f t="shared" si="13"/>
+        <v>0.18489</v>
+      </c>
+      <c r="P24" s="6">
         <f t="shared" si="6"/>
-        <v>0.18489</v>
-      </c>
-      <c r="P24" s="6">
+        <v>5.4086213424198171</v>
+      </c>
+      <c r="Q24" s="6">
         <f t="shared" si="7"/>
-        <v>5.4086213424198171</v>
-      </c>
-      <c r="Q24" s="6">
+        <v>0.15404000000000001</v>
+      </c>
+      <c r="R24" s="6">
         <f t="shared" si="8"/>
-        <v>0.15404000000000001</v>
-      </c>
-      <c r="R24" s="6">
-        <f t="shared" si="9"/>
         <v>6.4918203064139179</v>
       </c>
       <c r="S24" s="10">
         <v>2176300000000000</v>
       </c>
       <c r="T24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4.594954739695814E-16</v>
       </c>
       <c r="U24" s="6">
         <v>0.21329999999999999</v>
       </c>
       <c r="V24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>4.6882325363338024</v>
       </c>
       <c r="W24" s="6">
@@ -68115,19 +69621,19 @@
         <v>0.14169999999999999</v>
       </c>
       <c r="Z24" s="6">
+        <f t="shared" si="10"/>
+        <v>7.0571630204657732</v>
+      </c>
+      <c r="AA24" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.5530000000000006E-2</v>
+      </c>
+      <c r="AB24" s="6">
         <f t="shared" si="11"/>
-        <v>7.0571630204657732</v>
-      </c>
-      <c r="AA24" s="6">
-        <f>O24-M24</f>
-        <v>-3.5530000000000006E-2</v>
-      </c>
-      <c r="AB24" s="6">
-        <f t="shared" si="12"/>
         <v>-0.16119226930405584</v>
       </c>
       <c r="AC24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4128</v>
       </c>
       <c r="AD24" s="17"/>
@@ -68154,14 +69660,14 @@
         <v>0.31308999999999998</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.1939697850458337</v>
       </c>
       <c r="G25" s="6">
         <v>0.31093999999999999</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>3.216054544285071</v>
       </c>
       <c r="I25" s="6">
@@ -68186,33 +69692,33 @@
         <v>7.335680751173709</v>
       </c>
       <c r="O25" s="6">
+        <f t="shared" si="13"/>
+        <v>0.31093999999999999</v>
+      </c>
+      <c r="P25" s="6">
         <f t="shared" si="6"/>
-        <v>0.31093999999999999</v>
-      </c>
-      <c r="P25" s="6">
+        <v>3.216054544285071</v>
+      </c>
+      <c r="Q25" s="6">
         <f t="shared" si="7"/>
-        <v>3.216054544285071</v>
-      </c>
-      <c r="Q25" s="6">
+        <v>0.12553</v>
+      </c>
+      <c r="R25" s="6">
         <f t="shared" si="8"/>
-        <v>0.12553</v>
-      </c>
-      <c r="R25" s="6">
-        <f t="shared" si="9"/>
         <v>7.9662232135744446</v>
       </c>
       <c r="S25" s="6">
         <v>0.50629999999999997</v>
       </c>
       <c r="T25" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.9751135690302193</v>
       </c>
       <c r="U25" s="6">
         <v>9.7799999999999998E-2</v>
       </c>
       <c r="V25" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10.224948875255624</v>
       </c>
       <c r="W25" s="6">
@@ -68225,19 +69731,19 @@
         <v>0.22059999999999999</v>
       </c>
       <c r="Z25" s="6">
+        <f t="shared" si="10"/>
+        <v>4.5330915684496826</v>
+      </c>
+      <c r="AA25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.17462</v>
+      </c>
+      <c r="AB25" s="6">
         <f t="shared" si="11"/>
-        <v>4.5330915684496826</v>
-      </c>
-      <c r="AA25" s="6">
-        <f>O25-M25</f>
-        <v>0.17462</v>
-      </c>
-      <c r="AB25" s="6">
-        <f t="shared" si="12"/>
         <v>1.2809565727699532</v>
       </c>
       <c r="AC25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.49659999999999999</v>
       </c>
       <c r="AD25" s="17"/>
@@ -68264,14 +69770,14 @@
         <v>0.36165999999999998</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7650279267820608</v>
       </c>
       <c r="G26" s="6">
         <v>0.30018</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>3.3313345326137651</v>
       </c>
       <c r="I26" s="6">
@@ -68296,33 +69802,33 @@
         <v>5.4570259208731242</v>
       </c>
       <c r="O26" s="6">
+        <f t="shared" si="13"/>
+        <v>0.30018</v>
+      </c>
+      <c r="P26" s="6">
         <f t="shared" si="6"/>
-        <v>0.30018</v>
-      </c>
-      <c r="P26" s="6">
+        <v>3.3313345326137651</v>
+      </c>
+      <c r="Q26" s="6">
         <f t="shared" si="7"/>
-        <v>3.3313345326137651</v>
-      </c>
-      <c r="Q26" s="6">
+        <v>0.15275</v>
+      </c>
+      <c r="R26" s="6">
         <f t="shared" si="8"/>
-        <v>0.15275</v>
-      </c>
-      <c r="R26" s="6">
-        <f t="shared" si="9"/>
         <v>6.5466448445171848</v>
       </c>
       <c r="S26" s="10">
         <v>1235200000000000</v>
       </c>
       <c r="T26" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>8.0958549222797929E-16</v>
       </c>
       <c r="U26" s="6">
         <v>9.1200000000000003E-2</v>
       </c>
       <c r="V26" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>10.964912280701753</v>
       </c>
       <c r="W26" s="6">
@@ -68335,19 +69841,19 @@
         <v>0.23100000000000001</v>
       </c>
       <c r="Z26" s="6">
+        <f t="shared" si="10"/>
+        <v>4.329004329004329</v>
+      </c>
+      <c r="AA26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.11693000000000001</v>
+      </c>
+      <c r="AB26" s="6">
         <f t="shared" si="11"/>
-        <v>4.329004329004329</v>
-      </c>
-      <c r="AA26" s="6">
-        <f>O26-M26</f>
-        <v>0.11693000000000001</v>
-      </c>
-      <c r="AB26" s="6">
-        <f t="shared" si="12"/>
         <v>0.63809004092769439</v>
       </c>
       <c r="AC26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.40789999999999998</v>
       </c>
       <c r="AD26" s="17"/>
@@ -68374,14 +69880,14 @@
         <v>0.18845999999999999</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.3061657646184868</v>
       </c>
       <c r="G27" s="6">
         <v>0.38266</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>2.6132859457481836</v>
       </c>
       <c r="I27" s="6">
@@ -68406,33 +69912,33 @@
         <v>4.5520757465404227</v>
       </c>
       <c r="O27" s="6">
+        <f t="shared" si="13"/>
+        <v>0.18845999999999999</v>
+      </c>
+      <c r="P27" s="6">
         <f t="shared" si="6"/>
-        <v>0.18845999999999999</v>
-      </c>
-      <c r="P27" s="6">
+        <v>5.3061657646184868</v>
+      </c>
+      <c r="Q27" s="6">
         <f t="shared" si="7"/>
-        <v>5.3061657646184868</v>
-      </c>
-      <c r="Q27" s="6">
+        <v>0.16305</v>
+      </c>
+      <c r="R27" s="6">
         <f t="shared" si="8"/>
-        <v>0.16305</v>
-      </c>
-      <c r="R27" s="6">
-        <f t="shared" si="9"/>
         <v>6.1330880098129406</v>
       </c>
       <c r="S27" s="6">
         <v>0.1431</v>
       </c>
       <c r="T27" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.9881201956673653</v>
       </c>
       <c r="U27" s="6">
         <v>0.33410000000000001</v>
       </c>
       <c r="V27" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.9931158335827597</v>
       </c>
       <c r="W27" s="6">
@@ -68445,19 +69951,19 @@
         <v>0.1691</v>
       </c>
       <c r="Z27" s="6">
+        <f t="shared" si="10"/>
+        <v>5.9136605558840927</v>
+      </c>
+      <c r="AA27" s="6">
+        <f t="shared" si="0"/>
+        <v>-3.1219999999999998E-2</v>
+      </c>
+      <c r="AB27" s="6">
         <f t="shared" si="11"/>
-        <v>5.9136605558840927</v>
-      </c>
-      <c r="AA27" s="6">
-        <f>O27-M27</f>
-        <v>-3.1219999999999998E-2</v>
-      </c>
-      <c r="AB27" s="6">
-        <f t="shared" si="12"/>
         <v>-0.14211580480699196</v>
       </c>
       <c r="AC27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19520000000000001</v>
       </c>
       <c r="AD27" s="17"/>
@@ -68724,6 +70230,833 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2323712-B30D-2C41-B048-9DAA2F726D3D}">
+  <dimension ref="A1:AJ27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE20C57-8551-C949-92E9-C91AD949E0F8}">
   <dimension ref="A1:V31"/>
   <sheetViews>
@@ -69793,7 +72126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928B2769-DA22-F049-AB54-F3BA765FB117}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
@@ -71778,1413 +74111,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F95B87-232C-E348-AF66-4DE24F3DFBDF}">
-  <dimension ref="A1:H69"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11">
-        <v>18</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0.86799000000000004</v>
-      </c>
-      <c r="F2" s="11">
-        <v>-0.1401</v>
-      </c>
-      <c r="G2" s="11">
-        <v>0.1249</v>
-      </c>
-      <c r="H2" s="11">
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11">
-        <v>1</v>
-      </c>
-      <c r="D3" s="11">
-        <v>19</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.24379999999999999</v>
-      </c>
-      <c r="F3" s="11">
-        <v>1.9E-3</v>
-      </c>
-      <c r="G3" s="11">
-        <v>0.1132</v>
-      </c>
-      <c r="H3" s="11">
-        <v>3.9100000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
-        <v>4</v>
-      </c>
-      <c r="B4" s="11">
-        <v>26</v>
-      </c>
-      <c r="C4" s="11">
-        <v>1</v>
-      </c>
-      <c r="D4" s="11">
-        <v>20</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.17718999999999999</v>
-      </c>
-      <c r="F4" s="11">
-        <v>-2.6200000000000001E-2</v>
-      </c>
-      <c r="G4" s="11">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="H4" s="11">
-        <v>5.9700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="11">
-        <v>18</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.28893999999999997</v>
-      </c>
-      <c r="F5" s="11">
-        <v>-2E-3</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1.0147999999999999</v>
-      </c>
-      <c r="H5" s="11">
-        <v>-0.34439999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
-        <v>7</v>
-      </c>
-      <c r="B6" s="11">
-        <v>26</v>
-      </c>
-      <c r="C6" s="11">
-        <v>1</v>
-      </c>
-      <c r="D6" s="11">
-        <v>18</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.2087</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0.105</v>
-      </c>
-      <c r="G6" s="11">
-        <v>0.28839999999999999</v>
-      </c>
-      <c r="H6" s="11">
-        <v>9.4000000000000004E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
-        <v>8</v>
-      </c>
-      <c r="B7" s="11">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11">
-        <v>2</v>
-      </c>
-      <c r="D7" s="11">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11">
-        <v>0.22957</v>
-      </c>
-      <c r="F7" s="11">
-        <v>6.6400000000000001E-2</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0.37669999999999998</v>
-      </c>
-      <c r="H7" s="11">
-        <v>-2.1100000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>9</v>
-      </c>
-      <c r="B8" s="11">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11">
-        <v>2</v>
-      </c>
-      <c r="D8" s="11">
-        <v>18</v>
-      </c>
-      <c r="E8" s="11">
-        <v>0.21908</v>
-      </c>
-      <c r="F8" s="11">
-        <v>-8.6499999999999994E-2</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0.16</v>
-      </c>
-      <c r="H8" s="11">
-        <v>-0.38040000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>10</v>
-      </c>
-      <c r="B9" s="11">
-        <v>26</v>
-      </c>
-      <c r="C9" s="11">
-        <v>1</v>
-      </c>
-      <c r="D9" s="11">
-        <v>19</v>
-      </c>
-      <c r="E9" s="11">
-        <v>0.31152000000000002</v>
-      </c>
-      <c r="F9" s="11">
-        <v>-5.3100000000000001E-2</v>
-      </c>
-      <c r="G9" s="11">
-        <v>0.16539999999999999</v>
-      </c>
-      <c r="H9" s="11">
-        <v>-7.9500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>13</v>
-      </c>
-      <c r="B10" s="11">
-        <v>26</v>
-      </c>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11">
-        <v>18</v>
-      </c>
-      <c r="E10" s="11">
-        <v>1.143</v>
-      </c>
-      <c r="F10" s="11">
-        <v>-0.31009999999999999</v>
-      </c>
-      <c r="G10" s="11">
-        <v>0.92510000000000003</v>
-      </c>
-      <c r="H10" s="11">
-        <v>-6.5799999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11">
-        <v>26</v>
-      </c>
-      <c r="C11" s="11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="11">
-        <v>41</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0.80842000000000003</v>
-      </c>
-      <c r="F11" s="11">
-        <v>5.21E-2</v>
-      </c>
-      <c r="G11" s="11">
-        <v>0.16950000000000001</v>
-      </c>
-      <c r="H11" s="11">
-        <v>-0.31619999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>17</v>
-      </c>
-      <c r="B12" s="11">
-        <v>26</v>
-      </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>22</v>
-      </c>
-      <c r="E12" s="11">
-        <v>0.26182</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1.8800000000000001E-2</v>
-      </c>
-      <c r="G12" s="11">
-        <v>0.33119999999999999</v>
-      </c>
-      <c r="H12" s="11">
-        <v>-8.9499999999999996E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>18</v>
-      </c>
-      <c r="B13" s="11">
-        <v>26</v>
-      </c>
-      <c r="C13" s="11">
-        <v>1</v>
-      </c>
-      <c r="D13" s="11">
-        <v>18</v>
-      </c>
-      <c r="E13" s="11">
-        <v>0.37341000000000002</v>
-      </c>
-      <c r="F13" s="11">
-        <v>-0.14219999999999999</v>
-      </c>
-      <c r="G13" s="11">
-        <v>0.17660000000000001</v>
-      </c>
-      <c r="H13" s="11">
-        <v>-0.1221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>19</v>
-      </c>
-      <c r="B14" s="11">
-        <v>26</v>
-      </c>
-      <c r="C14" s="11">
-        <v>2</v>
-      </c>
-      <c r="D14" s="11">
-        <v>18</v>
-      </c>
-      <c r="E14" s="11">
-        <v>0.34501999999999999</v>
-      </c>
-      <c r="F14" s="11">
-        <v>3.39E-2</v>
-      </c>
-      <c r="G14" s="11">
-        <v>0.13780000000000001</v>
-      </c>
-      <c r="H14" s="11">
-        <v>-5.11E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>20</v>
-      </c>
-      <c r="B15" s="11">
-        <v>26</v>
-      </c>
-      <c r="C15" s="11">
-        <v>1</v>
-      </c>
-      <c r="D15" s="11">
-        <v>18</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.35428999999999999</v>
-      </c>
-      <c r="F15" s="11">
-        <v>-5.4899999999999997E-2</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0.2155</v>
-      </c>
-      <c r="H15" s="11">
-        <v>2.9899999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>22</v>
-      </c>
-      <c r="B16" s="11">
-        <v>26</v>
-      </c>
-      <c r="C16" s="11">
-        <v>1</v>
-      </c>
-      <c r="D16" s="11">
-        <v>18</v>
-      </c>
-      <c r="E16" s="11">
-        <v>0.31494</v>
-      </c>
-      <c r="F16" s="11">
-        <v>3.5799999999999998E-2</v>
-      </c>
-      <c r="G16" s="11">
-        <v>0.1368</v>
-      </c>
-      <c r="H16" s="11">
-        <v>-0.36209999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>24</v>
-      </c>
-      <c r="B17" s="11">
-        <v>26</v>
-      </c>
-      <c r="C17" s="11">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11">
-        <v>19</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.20165</v>
-      </c>
-      <c r="F17" s="11">
-        <v>6.9500000000000006E-2</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0.35120000000000001</v>
-      </c>
-      <c r="H17" s="11">
-        <v>6.1400000000000003E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>26</v>
-      </c>
-      <c r="B18" s="11">
-        <v>26</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
-        <v>18</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4.7570000000000001E-2</v>
-      </c>
-      <c r="F18" s="11">
-        <v>-0.1016</v>
-      </c>
-      <c r="G18" s="11">
-        <v>1.1604000000000001</v>
-      </c>
-      <c r="H18" s="11">
-        <v>0.31330000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>28</v>
-      </c>
-      <c r="B19" s="11">
-        <v>26</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" s="11">
-        <v>22</v>
-      </c>
-      <c r="E19" s="11">
-        <v>0.28499000000000002</v>
-      </c>
-      <c r="F19" s="11">
-        <v>4.9200000000000001E-2</v>
-      </c>
-      <c r="G19" s="11">
-        <v>4.8599999999999997E-2</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0.11269999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12">
-        <v>0.27511999999999998</v>
-      </c>
-      <c r="F20" s="12">
-        <v>-5.9070999999999999E-2</v>
-      </c>
-      <c r="G20" s="12">
-        <v>0.12909999999999999</v>
-      </c>
-      <c r="H20" s="12">
-        <v>-3.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12">
-        <v>0.43719999999999998</v>
-      </c>
-      <c r="F21" s="12">
-        <v>-2.0995E-2</v>
-      </c>
-      <c r="G21" s="12">
-        <v>1.2163999999999999</v>
-      </c>
-      <c r="H21" s="12">
-        <v>9.3490000000000004E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="12">
-        <v>0.26784000000000002</v>
-      </c>
-      <c r="F22" s="12">
-        <v>-4.9342999999999998E-2</v>
-      </c>
-      <c r="G22" s="12">
-        <v>1.1076999999999999</v>
-      </c>
-      <c r="H22" s="12">
-        <v>5.7849999999999999E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12">
-        <v>0.47077999999999998</v>
-      </c>
-      <c r="F23" s="12">
-        <v>9.4183000000000003E-2</v>
-      </c>
-      <c r="G23" s="12">
-        <v>0.31180000000000002</v>
-      </c>
-      <c r="H23" s="12">
-        <v>-0.1109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13">
-        <v>0.22731000000000001</v>
-      </c>
-      <c r="F24" s="13">
-        <v>-1.5136999999999999E-2</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0.3846</v>
-      </c>
-      <c r="H24" s="13">
-        <v>-6.5500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12">
-        <v>0.27953</v>
-      </c>
-      <c r="F25" s="12">
-        <v>4.1355000000000003E-2</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0.86880000000000002</v>
-      </c>
-      <c r="H25" s="12">
-        <v>-0.41439999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12">
-        <v>0.21354999999999999</v>
-      </c>
-      <c r="F26" s="12">
-        <v>-3.2411000000000002E-2</v>
-      </c>
-      <c r="G26" s="12">
-        <v>0.25130000000000002</v>
-      </c>
-      <c r="H26" s="12">
-        <v>1.9290000000000002E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12">
-        <v>0.33878999999999998</v>
-      </c>
-      <c r="F27" s="12">
-        <v>-5.6357999999999998E-2</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0.13109999999999999</v>
-      </c>
-      <c r="H27" s="12">
-        <v>-7.4899999999999994E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12">
-        <v>0.57528999999999997</v>
-      </c>
-      <c r="F28" s="12">
-        <v>0.13552</v>
-      </c>
-      <c r="G28" s="12">
-        <v>0.8286</v>
-      </c>
-      <c r="H28" s="12">
-        <v>0.12361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12">
-        <v>0.26562999999999998</v>
-      </c>
-      <c r="F29" s="12">
-        <v>2.4868000000000001E-2</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0.35630000000000001</v>
-      </c>
-      <c r="H29" s="12">
-        <v>-0.42470000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12">
-        <v>0.46106999999999998</v>
-      </c>
-      <c r="F30" s="12">
-        <v>7.7715999999999993E-2</v>
-      </c>
-      <c r="G30" s="12">
-        <v>0.43909999999999999</v>
-      </c>
-      <c r="H30" s="12">
-        <v>-5.9900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="12">
-        <v>0.32507000000000003</v>
-      </c>
-      <c r="F31" s="12">
-        <v>-4.4429999999999999E-3</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0.21290000000000001</v>
-      </c>
-      <c r="H31" s="12">
-        <v>-3.7199999999999997E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12">
-        <v>0.25191000000000002</v>
-      </c>
-      <c r="F32" s="12">
-        <v>-7.7071000000000001E-2</v>
-      </c>
-      <c r="G32" s="12">
-        <v>0.39300000000000002</v>
-      </c>
-      <c r="H32" s="12">
-        <v>-7.0499999999999993E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12">
-        <v>0.45722000000000002</v>
-      </c>
-      <c r="F33" s="12">
-        <v>-6.862E-2</v>
-      </c>
-      <c r="G33" s="12">
-        <v>2.2038000000000002</v>
-      </c>
-      <c r="H33" s="12">
-        <v>-0.35959999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="12">
-        <v>0.20147999999999999</v>
-      </c>
-      <c r="F34" s="12">
-        <v>0.12534000000000001</v>
-      </c>
-      <c r="G34" s="12">
-        <v>0.16020000000000001</v>
-      </c>
-      <c r="H34" s="12">
-        <v>-1.15E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="12">
-        <v>0.30142000000000002</v>
-      </c>
-      <c r="F35" s="12">
-        <v>0.11273</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0.45689999999999997</v>
-      </c>
-      <c r="H35" s="12">
-        <v>3.9620000000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="12">
-        <v>0.22456000000000001</v>
-      </c>
-      <c r="F36" s="12">
-        <v>0.15039</v>
-      </c>
-      <c r="G36" s="12">
-        <v>0.2923</v>
-      </c>
-      <c r="H36" s="12">
-        <v>-6.9999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12">
-        <v>0.29465999999999998</v>
-      </c>
-      <c r="F37" s="12">
-        <v>-2.9129999999999998E-3</v>
-      </c>
-      <c r="G37" s="12">
-        <v>2.0834000000000001</v>
-      </c>
-      <c r="H37" s="12">
-        <v>-0.8538</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12">
-        <v>0.22489000000000001</v>
-      </c>
-      <c r="F38" s="12">
-        <v>1.0428E-2</v>
-      </c>
-      <c r="G38" s="12">
-        <v>0.66049999999999998</v>
-      </c>
-      <c r="H38" s="12">
-        <v>-1.0500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="14">
-        <v>0.33885999999999999</v>
-      </c>
-      <c r="F39" s="14">
-        <v>0.12007</v>
-      </c>
-      <c r="G39" s="14">
-        <v>0.17660000000000001</v>
-      </c>
-      <c r="H39" s="14">
-        <v>1.6490000000000001E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="12">
-        <v>0.21723000000000001</v>
-      </c>
-      <c r="F40" s="12">
-        <v>-2.273E-2</v>
-      </c>
-      <c r="G40" s="12">
-        <v>0.38729999999999998</v>
-      </c>
-      <c r="H40" s="12">
-        <v>-8.5800000000000001E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="15">
-        <v>0.32151000000000002</v>
-      </c>
-      <c r="F41" s="15">
-        <v>-2.5283E-2</v>
-      </c>
-      <c r="G41" s="15">
-        <v>0.32600000000000001</v>
-      </c>
-      <c r="H41" s="15">
-        <v>-1.47E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="12">
-        <v>0.27522999999999997</v>
-      </c>
-      <c r="F42" s="12">
-        <v>6.7932999999999993E-2</v>
-      </c>
-      <c r="G42" s="12">
-        <v>0.47189999999999999</v>
-      </c>
-      <c r="H42" s="12">
-        <v>-0.35749999999999998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="12">
-        <v>0.51112999999999997</v>
-      </c>
-      <c r="F43" s="12">
-        <v>-3.1074999999999998E-2</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0.41539999999999999</v>
-      </c>
-      <c r="H43" s="12">
-        <v>-0.1321</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12">
-        <v>0.28749000000000002</v>
-      </c>
-      <c r="F44" s="12">
-        <v>-2.6419000000000002E-2</v>
-      </c>
-      <c r="G44" s="12">
-        <v>0.37469999999999998</v>
-      </c>
-      <c r="H44" s="12">
-        <v>-3.3399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12">
-        <v>0.39283000000000001</v>
-      </c>
-      <c r="F45" s="12">
-        <v>5.3232000000000002E-2</v>
-      </c>
-      <c r="G45" s="12">
-        <v>1.1543000000000001</v>
-      </c>
-      <c r="H45" s="12">
-        <v>6.2359999999999999E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="12">
-        <v>2.8862999999999999</v>
-      </c>
-      <c r="F46" s="12">
-        <v>-0.11402</v>
-      </c>
-      <c r="G46" s="12">
-        <v>0.39660000000000001</v>
-      </c>
-      <c r="H46" s="12">
-        <v>-0.10879999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12">
-        <v>0.28949999999999998</v>
-      </c>
-      <c r="F47" s="12">
-        <v>1.7471E-2</v>
-      </c>
-      <c r="G47" s="12">
-        <v>0.33889999999999998</v>
-      </c>
-      <c r="H47" s="12">
-        <v>7.5679999999999997E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12">
-        <v>0.45234999999999997</v>
-      </c>
-      <c r="F48" s="12">
-        <v>-2.3553999999999999E-2</v>
-      </c>
-      <c r="G48" s="12">
-        <v>0.26340000000000002</v>
-      </c>
-      <c r="H48" s="12">
-        <v>3.8460000000000001E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="12">
-        <v>0.76224000000000003</v>
-      </c>
-      <c r="F49" s="12">
-        <v>-0.31807000000000002</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0.29189999999999999</v>
-      </c>
-      <c r="H49" s="12">
-        <v>-2.8400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12">
-        <v>0.50087999999999999</v>
-      </c>
-      <c r="F50" s="12">
-        <v>6.293E-3</v>
-      </c>
-      <c r="G50" s="12">
-        <v>0.1477</v>
-      </c>
-      <c r="H50" s="12">
-        <v>2.1069999999999998E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12">
-        <v>1.2891999999999999</v>
-      </c>
-      <c r="F51" s="12">
-        <v>-0.26239000000000001</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0.72499999999999998</v>
-      </c>
-      <c r="H51" s="12">
-        <v>-0.37609999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="12">
-        <v>0.33999000000000001</v>
-      </c>
-      <c r="F52" s="12">
-        <v>8.7785000000000002E-2</v>
-      </c>
-      <c r="G52" s="12">
-        <v>0.63370000000000004</v>
-      </c>
-      <c r="H52" s="12">
-        <v>0.22833000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12">
-        <v>0.23974999999999999</v>
-      </c>
-      <c r="F53" s="12">
-        <v>-2.7097E-2</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0.15049999999999999</v>
-      </c>
-      <c r="H53" s="12">
-        <v>-3.6400000000000002E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="15">
-        <v>0.17116000000000001</v>
-      </c>
-      <c r="F54" s="15">
-        <v>1.2356000000000001E-2</v>
-      </c>
-      <c r="G54" s="15">
-        <v>0.3221</v>
-      </c>
-      <c r="H54" s="15">
-        <v>-0.12379999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="12">
-        <v>0.71536</v>
-      </c>
-      <c r="F55" s="12">
-        <v>-0.16435</v>
-      </c>
-      <c r="G55" s="12">
-        <v>0.14549999999999999</v>
-      </c>
-      <c r="H55" s="12">
-        <v>-3.8899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="13">
-        <v>0.31519000000000003</v>
-      </c>
-      <c r="F56" s="13">
-        <v>-2.0969999999999999E-3</v>
-      </c>
-      <c r="G56" s="13">
-        <v>0.27339999999999998</v>
-      </c>
-      <c r="H56" s="13">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="15">
-        <v>0.27249000000000001</v>
-      </c>
-      <c r="F57" s="15">
-        <v>1.2952E-2</v>
-      </c>
-      <c r="G57" s="15">
-        <v>0.27239999999999998</v>
-      </c>
-      <c r="H57" s="15">
-        <v>-3.1E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="12">
-        <v>0.20094000000000001</v>
-      </c>
-      <c r="F58" s="12">
-        <v>-1.8699E-2</v>
-      </c>
-      <c r="G58" s="12">
-        <v>0.33479999999999999</v>
-      </c>
-      <c r="H58" s="12">
-        <v>-0.11990000000000001</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12">
-        <v>0.24052999999999999</v>
-      </c>
-      <c r="F59" s="12">
-        <v>3.3406999999999999E-2</v>
-      </c>
-      <c r="G59" s="12">
-        <v>0.17330000000000001</v>
-      </c>
-      <c r="H59" s="12">
-        <v>-6.8999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12">
-        <v>0.51856999999999998</v>
-      </c>
-      <c r="F60" s="12">
-        <v>-9.3562000000000006E-2</v>
-      </c>
-      <c r="G60" s="12">
-        <v>0.13289999999999999</v>
-      </c>
-      <c r="H60" s="12">
-        <v>-1.1999999999999999E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="12">
-        <v>0.23591999999999999</v>
-      </c>
-      <c r="F61" s="12">
-        <v>3.7504000000000003E-2</v>
-      </c>
-      <c r="G61" s="12">
-        <v>0.16120000000000001</v>
-      </c>
-      <c r="H61" s="12">
-        <v>3.2989999999999998E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12">
-        <v>0.36451</v>
-      </c>
-      <c r="F62" s="12">
-        <v>-2.665E-2</v>
-      </c>
-      <c r="G62" s="12">
-        <v>0.19670000000000001</v>
-      </c>
-      <c r="H62" s="12">
-        <v>-1.2500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12">
-        <v>0.37707000000000002</v>
-      </c>
-      <c r="F63" s="12">
-        <v>3.9837999999999998E-2</v>
-      </c>
-      <c r="G63" s="12">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="H63" s="12">
-        <v>-2.76E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="12">
-        <v>0.21661</v>
-      </c>
-      <c r="F64" s="12">
-        <v>-2.7989E-2</v>
-      </c>
-      <c r="G64" s="12">
-        <v>0.1454</v>
-      </c>
-      <c r="H64" s="12">
-        <v>-1.4500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12">
-        <v>0.24193999999999999</v>
-      </c>
-      <c r="F65" s="12">
-        <v>6.3977000000000006E-2</v>
-      </c>
-      <c r="G65" s="12">
-        <v>0.24079999999999999</v>
-      </c>
-      <c r="H65" s="12">
-        <v>-5.8900000000000001E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12">
-        <v>0.19278999999999999</v>
-      </c>
-      <c r="F66" s="12">
-        <v>-3.1583E-2</v>
-      </c>
-      <c r="G66" s="12">
-        <v>0.23139999999999999</v>
-      </c>
-      <c r="H66" s="12">
-        <v>4.7039999999999998E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="12">
-        <v>0.25674999999999998</v>
-      </c>
-      <c r="F67" s="12">
-        <v>-4.0357999999999998E-2</v>
-      </c>
-      <c r="G67" s="12">
-        <v>0.3165</v>
-      </c>
-      <c r="H67" s="12">
-        <v>-5.2900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="12">
-        <v>0.33048</v>
-      </c>
-      <c r="F68" s="12">
-        <v>-1.6868000000000001E-2</v>
-      </c>
-      <c r="G68" s="12">
-        <v>0.65649999999999997</v>
-      </c>
-      <c r="H68" s="12">
-        <v>-2.7400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="15">
-        <v>0.45715</v>
-      </c>
-      <c r="F69" s="15">
-        <v>7.1623000000000006E-2</v>
-      </c>
-      <c r="G69" s="15">
-        <v>0.1019</v>
-      </c>
-      <c r="H69" s="15">
-        <v>-1.89E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>